--- a/システム構成図.xlsx
+++ b/システム構成図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GWー221\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06E0248-803E-4773-9015-D082BA4ADC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76B5C21-75C4-44D8-9B30-B44166DA9C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="12675" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,18 +25,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">対象先： </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kenshu-test.net ]</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※普段は停めてます。</t>
+    <rPh sb="1" eb="3">
+      <t>フダン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,6 +86,27 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -71,11 +129,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2553,1017 +2614,1021 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I2" s="1"/>
+    <row r="1" spans="9:9" ht="18.75" customHeight="1"/>
+    <row r="2" spans="9:9" ht="18.75" customHeight="1">
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I3" s="1"/>
+    <row r="3" spans="9:9" ht="18.75" customHeight="1">
+      <c r="I3" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="9:9" ht="18.75" customHeight="1"/>
+    <row r="5" spans="9:9" ht="18.75" customHeight="1"/>
+    <row r="6" spans="9:9" ht="18.75" customHeight="1"/>
+    <row r="7" spans="9:9" ht="18.75" customHeight="1"/>
+    <row r="8" spans="9:9" ht="18.75" customHeight="1"/>
+    <row r="9" spans="9:9" ht="18.75" customHeight="1"/>
+    <row r="10" spans="9:9" ht="18.75" customHeight="1"/>
+    <row r="11" spans="9:9" ht="18.75" customHeight="1"/>
+    <row r="12" spans="9:9" ht="18.75" customHeight="1"/>
+    <row r="13" spans="9:9" ht="18.75" customHeight="1"/>
+    <row r="14" spans="9:9" ht="18.75" customHeight="1"/>
+    <row r="15" spans="9:9" ht="18.75" customHeight="1"/>
+    <row r="16" spans="9:9" ht="18.75" customHeight="1"/>
+    <row r="17" ht="18.75" customHeight="1"/>
+    <row r="18" ht="18.75" customHeight="1"/>
+    <row r="19" ht="18.75" customHeight="1"/>
+    <row r="20" ht="18.75" customHeight="1"/>
+    <row r="21" ht="18.75" customHeight="1"/>
+    <row r="22" ht="18.75" customHeight="1"/>
+    <row r="23" ht="18.75" customHeight="1"/>
+    <row r="24" ht="18.75" customHeight="1"/>
+    <row r="25" ht="18.75" customHeight="1"/>
+    <row r="26" ht="18.75" customHeight="1"/>
+    <row r="27" ht="18.75" customHeight="1"/>
+    <row r="28" ht="18.75" customHeight="1"/>
+    <row r="29" ht="18.75" customHeight="1"/>
+    <row r="30" ht="18.75" customHeight="1"/>
+    <row r="31" ht="18.75" customHeight="1"/>
+    <row r="32" ht="18.75" customHeight="1"/>
+    <row r="33" ht="18.75" customHeight="1"/>
+    <row r="34" ht="18.75" customHeight="1"/>
+    <row r="35" ht="18.75" customHeight="1"/>
+    <row r="36" ht="18.75" customHeight="1"/>
+    <row r="37" ht="18.75" customHeight="1"/>
+    <row r="38" ht="18.75" customHeight="1"/>
+    <row r="39" ht="18.75" customHeight="1"/>
+    <row r="40" ht="18.75" customHeight="1"/>
+    <row r="41" ht="18.75" customHeight="1"/>
+    <row r="42" ht="18.75" customHeight="1"/>
+    <row r="43" ht="18.75" customHeight="1"/>
+    <row r="44" ht="18.75" customHeight="1"/>
+    <row r="45" ht="18.75" customHeight="1"/>
+    <row r="46" ht="18.75" customHeight="1"/>
+    <row r="47" ht="18.75" customHeight="1"/>
+    <row r="48" ht="18.75" customHeight="1"/>
+    <row r="49" ht="18.75" customHeight="1"/>
+    <row r="50" ht="18.75" customHeight="1"/>
+    <row r="51" ht="18.75" customHeight="1"/>
+    <row r="52" ht="18.75" customHeight="1"/>
+    <row r="53" ht="18.75" customHeight="1"/>
+    <row r="54" ht="18.75" customHeight="1"/>
+    <row r="55" ht="18.75" customHeight="1"/>
+    <row r="56" ht="18.75" customHeight="1"/>
+    <row r="57" ht="18.75" customHeight="1"/>
+    <row r="58" ht="18.75" customHeight="1"/>
+    <row r="59" ht="18.75" customHeight="1"/>
+    <row r="60" ht="18.75" customHeight="1"/>
+    <row r="61" ht="18.75" customHeight="1"/>
+    <row r="62" ht="18.75" customHeight="1"/>
+    <row r="63" ht="18.75" customHeight="1"/>
+    <row r="64" ht="18.75" customHeight="1"/>
+    <row r="65" ht="18.75" customHeight="1"/>
+    <row r="66" ht="18.75" customHeight="1"/>
+    <row r="67" ht="18.75" customHeight="1"/>
+    <row r="68" ht="18.75" customHeight="1"/>
+    <row r="69" ht="18.75" customHeight="1"/>
+    <row r="70" ht="18.75" customHeight="1"/>
+    <row r="71" ht="18.75" customHeight="1"/>
+    <row r="72" ht="18.75" customHeight="1"/>
+    <row r="73" ht="18.75" customHeight="1"/>
+    <row r="74" ht="18.75" customHeight="1"/>
+    <row r="75" ht="18.75" customHeight="1"/>
+    <row r="76" ht="18.75" customHeight="1"/>
+    <row r="77" ht="18.75" customHeight="1"/>
+    <row r="78" ht="18.75" customHeight="1"/>
+    <row r="79" ht="18.75" customHeight="1"/>
+    <row r="80" ht="18.75" customHeight="1"/>
+    <row r="81" ht="18.75" customHeight="1"/>
+    <row r="82" ht="18.75" customHeight="1"/>
+    <row r="83" ht="18.75" customHeight="1"/>
+    <row r="84" ht="18.75" customHeight="1"/>
+    <row r="85" ht="18.75" customHeight="1"/>
+    <row r="86" ht="18.75" customHeight="1"/>
+    <row r="87" ht="18.75" customHeight="1"/>
+    <row r="88" ht="18.75" customHeight="1"/>
+    <row r="89" ht="18.75" customHeight="1"/>
+    <row r="90" ht="18.75" customHeight="1"/>
+    <row r="91" ht="18.75" customHeight="1"/>
+    <row r="92" ht="18.75" customHeight="1"/>
+    <row r="93" ht="18.75" customHeight="1"/>
+    <row r="94" ht="18.75" customHeight="1"/>
+    <row r="95" ht="18.75" customHeight="1"/>
+    <row r="96" ht="18.75" customHeight="1"/>
+    <row r="97" ht="18.75" customHeight="1"/>
+    <row r="98" ht="18.75" customHeight="1"/>
+    <row r="99" ht="18.75" customHeight="1"/>
+    <row r="100" ht="18.75" customHeight="1"/>
+    <row r="101" ht="18.75" customHeight="1"/>
+    <row r="102" ht="18.75" customHeight="1"/>
+    <row r="103" ht="18.75" customHeight="1"/>
+    <row r="104" ht="18.75" customHeight="1"/>
+    <row r="105" ht="18.75" customHeight="1"/>
+    <row r="106" ht="18.75" customHeight="1"/>
+    <row r="107" ht="18.75" customHeight="1"/>
+    <row r="108" ht="18.75" customHeight="1"/>
+    <row r="109" ht="18.75" customHeight="1"/>
+    <row r="110" ht="18.75" customHeight="1"/>
+    <row r="111" ht="18.75" customHeight="1"/>
+    <row r="112" ht="18.75" customHeight="1"/>
+    <row r="113" ht="18.75" customHeight="1"/>
+    <row r="114" ht="18.75" customHeight="1"/>
+    <row r="115" ht="18.75" customHeight="1"/>
+    <row r="116" ht="18.75" customHeight="1"/>
+    <row r="117" ht="18.75" customHeight="1"/>
+    <row r="118" ht="18.75" customHeight="1"/>
+    <row r="119" ht="18.75" customHeight="1"/>
+    <row r="120" ht="18.75" customHeight="1"/>
+    <row r="121" ht="18.75" customHeight="1"/>
+    <row r="122" ht="18.75" customHeight="1"/>
+    <row r="123" ht="18.75" customHeight="1"/>
+    <row r="124" ht="18.75" customHeight="1"/>
+    <row r="125" ht="18.75" customHeight="1"/>
+    <row r="126" ht="18.75" customHeight="1"/>
+    <row r="127" ht="18.75" customHeight="1"/>
+    <row r="128" ht="18.75" customHeight="1"/>
+    <row r="129" ht="18.75" customHeight="1"/>
+    <row r="130" ht="18.75" customHeight="1"/>
+    <row r="131" ht="18.75" customHeight="1"/>
+    <row r="132" ht="18.75" customHeight="1"/>
+    <row r="133" ht="18.75" customHeight="1"/>
+    <row r="134" ht="18.75" customHeight="1"/>
+    <row r="135" ht="18.75" customHeight="1"/>
+    <row r="136" ht="18.75" customHeight="1"/>
+    <row r="137" ht="18.75" customHeight="1"/>
+    <row r="138" ht="18.75" customHeight="1"/>
+    <row r="139" ht="18.75" customHeight="1"/>
+    <row r="140" ht="18.75" customHeight="1"/>
+    <row r="141" ht="18.75" customHeight="1"/>
+    <row r="142" ht="18.75" customHeight="1"/>
+    <row r="143" ht="18.75" customHeight="1"/>
+    <row r="144" ht="18.75" customHeight="1"/>
+    <row r="145" ht="18.75" customHeight="1"/>
+    <row r="146" ht="18.75" customHeight="1"/>
+    <row r="147" ht="18.75" customHeight="1"/>
+    <row r="148" ht="18.75" customHeight="1"/>
+    <row r="149" ht="18.75" customHeight="1"/>
+    <row r="150" ht="18.75" customHeight="1"/>
+    <row r="151" ht="18.75" customHeight="1"/>
+    <row r="152" ht="18.75" customHeight="1"/>
+    <row r="153" ht="18.75" customHeight="1"/>
+    <row r="154" ht="18.75" customHeight="1"/>
+    <row r="155" ht="18.75" customHeight="1"/>
+    <row r="156" ht="18.75" customHeight="1"/>
+    <row r="157" ht="18.75" customHeight="1"/>
+    <row r="158" ht="18.75" customHeight="1"/>
+    <row r="159" ht="18.75" customHeight="1"/>
+    <row r="160" ht="18.75" customHeight="1"/>
+    <row r="161" ht="18.75" customHeight="1"/>
+    <row r="162" ht="18.75" customHeight="1"/>
+    <row r="163" ht="18.75" customHeight="1"/>
+    <row r="164" ht="18.75" customHeight="1"/>
+    <row r="165" ht="18.75" customHeight="1"/>
+    <row r="166" ht="18.75" customHeight="1"/>
+    <row r="167" ht="18.75" customHeight="1"/>
+    <row r="168" ht="18.75" customHeight="1"/>
+    <row r="169" ht="18.75" customHeight="1"/>
+    <row r="170" ht="18.75" customHeight="1"/>
+    <row r="171" ht="18.75" customHeight="1"/>
+    <row r="172" ht="18.75" customHeight="1"/>
+    <row r="173" ht="18.75" customHeight="1"/>
+    <row r="174" ht="18.75" customHeight="1"/>
+    <row r="175" ht="18.75" customHeight="1"/>
+    <row r="176" ht="18.75" customHeight="1"/>
+    <row r="177" ht="18.75" customHeight="1"/>
+    <row r="178" ht="18.75" customHeight="1"/>
+    <row r="179" ht="18.75" customHeight="1"/>
+    <row r="180" ht="18.75" customHeight="1"/>
+    <row r="181" ht="18.75" customHeight="1"/>
+    <row r="182" ht="18.75" customHeight="1"/>
+    <row r="183" ht="18.75" customHeight="1"/>
+    <row r="184" ht="18.75" customHeight="1"/>
+    <row r="185" ht="18.75" customHeight="1"/>
+    <row r="186" ht="18.75" customHeight="1"/>
+    <row r="187" ht="18.75" customHeight="1"/>
+    <row r="188" ht="18.75" customHeight="1"/>
+    <row r="189" ht="18.75" customHeight="1"/>
+    <row r="190" ht="18.75" customHeight="1"/>
+    <row r="191" ht="18.75" customHeight="1"/>
+    <row r="192" ht="18.75" customHeight="1"/>
+    <row r="193" ht="18.75" customHeight="1"/>
+    <row r="194" ht="18.75" customHeight="1"/>
+    <row r="195" ht="18.75" customHeight="1"/>
+    <row r="196" ht="18.75" customHeight="1"/>
+    <row r="197" ht="18.75" customHeight="1"/>
+    <row r="198" ht="18.75" customHeight="1"/>
+    <row r="199" ht="18.75" customHeight="1"/>
+    <row r="200" ht="18.75" customHeight="1"/>
+    <row r="201" ht="18.75" customHeight="1"/>
+    <row r="202" ht="18.75" customHeight="1"/>
+    <row r="203" ht="18.75" customHeight="1"/>
+    <row r="204" ht="18.75" customHeight="1"/>
+    <row r="205" ht="18.75" customHeight="1"/>
+    <row r="206" ht="18.75" customHeight="1"/>
+    <row r="207" ht="18.75" customHeight="1"/>
+    <row r="208" ht="18.75" customHeight="1"/>
+    <row r="209" ht="18.75" customHeight="1"/>
+    <row r="210" ht="18.75" customHeight="1"/>
+    <row r="211" ht="18.75" customHeight="1"/>
+    <row r="212" ht="18.75" customHeight="1"/>
+    <row r="213" ht="18.75" customHeight="1"/>
+    <row r="214" ht="18.75" customHeight="1"/>
+    <row r="215" ht="18.75" customHeight="1"/>
+    <row r="216" ht="18.75" customHeight="1"/>
+    <row r="217" ht="18.75" customHeight="1"/>
+    <row r="218" ht="18.75" customHeight="1"/>
+    <row r="219" ht="18.75" customHeight="1"/>
+    <row r="220" ht="18.75" customHeight="1"/>
+    <row r="221" ht="18.75" customHeight="1"/>
+    <row r="222" ht="18.75" customHeight="1"/>
+    <row r="223" ht="18.75" customHeight="1"/>
+    <row r="224" ht="18.75" customHeight="1"/>
+    <row r="225" ht="18.75" customHeight="1"/>
+    <row r="226" ht="18.75" customHeight="1"/>
+    <row r="227" ht="18.75" customHeight="1"/>
+    <row r="228" ht="18.75" customHeight="1"/>
+    <row r="229" ht="18.75" customHeight="1"/>
+    <row r="230" ht="18.75" customHeight="1"/>
+    <row r="231" ht="18.75" customHeight="1"/>
+    <row r="232" ht="18.75" customHeight="1"/>
+    <row r="233" ht="18.75" customHeight="1"/>
+    <row r="234" ht="18.75" customHeight="1"/>
+    <row r="235" ht="18.75" customHeight="1"/>
+    <row r="236" ht="18.75" customHeight="1"/>
+    <row r="237" ht="18.75" customHeight="1"/>
+    <row r="238" ht="18.75" customHeight="1"/>
+    <row r="239" ht="18.75" customHeight="1"/>
+    <row r="240" ht="18.75" customHeight="1"/>
+    <row r="241" ht="18.75" customHeight="1"/>
+    <row r="242" ht="18.75" customHeight="1"/>
+    <row r="243" ht="18.75" customHeight="1"/>
+    <row r="244" ht="18.75" customHeight="1"/>
+    <row r="245" ht="18.75" customHeight="1"/>
+    <row r="246" ht="18.75" customHeight="1"/>
+    <row r="247" ht="18.75" customHeight="1"/>
+    <row r="248" ht="18.75" customHeight="1"/>
+    <row r="249" ht="18.75" customHeight="1"/>
+    <row r="250" ht="18.75" customHeight="1"/>
+    <row r="251" ht="18.75" customHeight="1"/>
+    <row r="252" ht="18.75" customHeight="1"/>
+    <row r="253" ht="18.75" customHeight="1"/>
+    <row r="254" ht="18.75" customHeight="1"/>
+    <row r="255" ht="18.75" customHeight="1"/>
+    <row r="256" ht="18.75" customHeight="1"/>
+    <row r="257" ht="18.75" customHeight="1"/>
+    <row r="258" ht="18.75" customHeight="1"/>
+    <row r="259" ht="18.75" customHeight="1"/>
+    <row r="260" ht="18.75" customHeight="1"/>
+    <row r="261" ht="18.75" customHeight="1"/>
+    <row r="262" ht="18.75" customHeight="1"/>
+    <row r="263" ht="18.75" customHeight="1"/>
+    <row r="264" ht="18.75" customHeight="1"/>
+    <row r="265" ht="18.75" customHeight="1"/>
+    <row r="266" ht="18.75" customHeight="1"/>
+    <row r="267" ht="18.75" customHeight="1"/>
+    <row r="268" ht="18.75" customHeight="1"/>
+    <row r="269" ht="18.75" customHeight="1"/>
+    <row r="270" ht="18.75" customHeight="1"/>
+    <row r="271" ht="18.75" customHeight="1"/>
+    <row r="272" ht="18.75" customHeight="1"/>
+    <row r="273" ht="18.75" customHeight="1"/>
+    <row r="274" ht="18.75" customHeight="1"/>
+    <row r="275" ht="18.75" customHeight="1"/>
+    <row r="276" ht="18.75" customHeight="1"/>
+    <row r="277" ht="18.75" customHeight="1"/>
+    <row r="278" ht="18.75" customHeight="1"/>
+    <row r="279" ht="18.75" customHeight="1"/>
+    <row r="280" ht="18.75" customHeight="1"/>
+    <row r="281" ht="18.75" customHeight="1"/>
+    <row r="282" ht="18.75" customHeight="1"/>
+    <row r="283" ht="18.75" customHeight="1"/>
+    <row r="284" ht="18.75" customHeight="1"/>
+    <row r="285" ht="18.75" customHeight="1"/>
+    <row r="286" ht="18.75" customHeight="1"/>
+    <row r="287" ht="18.75" customHeight="1"/>
+    <row r="288" ht="18.75" customHeight="1"/>
+    <row r="289" ht="18.75" customHeight="1"/>
+    <row r="290" ht="18.75" customHeight="1"/>
+    <row r="291" ht="18.75" customHeight="1"/>
+    <row r="292" ht="18.75" customHeight="1"/>
+    <row r="293" ht="18.75" customHeight="1"/>
+    <row r="294" ht="18.75" customHeight="1"/>
+    <row r="295" ht="18.75" customHeight="1"/>
+    <row r="296" ht="18.75" customHeight="1"/>
+    <row r="297" ht="18.75" customHeight="1"/>
+    <row r="298" ht="18.75" customHeight="1"/>
+    <row r="299" ht="18.75" customHeight="1"/>
+    <row r="300" ht="18.75" customHeight="1"/>
+    <row r="301" ht="18.75" customHeight="1"/>
+    <row r="302" ht="18.75" customHeight="1"/>
+    <row r="303" ht="18.75" customHeight="1"/>
+    <row r="304" ht="18.75" customHeight="1"/>
+    <row r="305" ht="18.75" customHeight="1"/>
+    <row r="306" ht="18.75" customHeight="1"/>
+    <row r="307" ht="18.75" customHeight="1"/>
+    <row r="308" ht="18.75" customHeight="1"/>
+    <row r="309" ht="18.75" customHeight="1"/>
+    <row r="310" ht="18.75" customHeight="1"/>
+    <row r="311" ht="18.75" customHeight="1"/>
+    <row r="312" ht="18.75" customHeight="1"/>
+    <row r="313" ht="18.75" customHeight="1"/>
+    <row r="314" ht="18.75" customHeight="1"/>
+    <row r="315" ht="18.75" customHeight="1"/>
+    <row r="316" ht="18.75" customHeight="1"/>
+    <row r="317" ht="18.75" customHeight="1"/>
+    <row r="318" ht="18.75" customHeight="1"/>
+    <row r="319" ht="18.75" customHeight="1"/>
+    <row r="320" ht="18.75" customHeight="1"/>
+    <row r="321" ht="18.75" customHeight="1"/>
+    <row r="322" ht="18.75" customHeight="1"/>
+    <row r="323" ht="18.75" customHeight="1"/>
+    <row r="324" ht="18.75" customHeight="1"/>
+    <row r="325" ht="18.75" customHeight="1"/>
+    <row r="326" ht="18.75" customHeight="1"/>
+    <row r="327" ht="18.75" customHeight="1"/>
+    <row r="328" ht="18.75" customHeight="1"/>
+    <row r="329" ht="18.75" customHeight="1"/>
+    <row r="330" ht="18.75" customHeight="1"/>
+    <row r="331" ht="18.75" customHeight="1"/>
+    <row r="332" ht="18.75" customHeight="1"/>
+    <row r="333" ht="18.75" customHeight="1"/>
+    <row r="334" ht="18.75" customHeight="1"/>
+    <row r="335" ht="18.75" customHeight="1"/>
+    <row r="336" ht="18.75" customHeight="1"/>
+    <row r="337" ht="18.75" customHeight="1"/>
+    <row r="338" ht="18.75" customHeight="1"/>
+    <row r="339" ht="18.75" customHeight="1"/>
+    <row r="340" ht="18.75" customHeight="1"/>
+    <row r="341" ht="18.75" customHeight="1"/>
+    <row r="342" ht="18.75" customHeight="1"/>
+    <row r="343" ht="18.75" customHeight="1"/>
+    <row r="344" ht="18.75" customHeight="1"/>
+    <row r="345" ht="18.75" customHeight="1"/>
+    <row r="346" ht="18.75" customHeight="1"/>
+    <row r="347" ht="18.75" customHeight="1"/>
+    <row r="348" ht="18.75" customHeight="1"/>
+    <row r="349" ht="18.75" customHeight="1"/>
+    <row r="350" ht="18.75" customHeight="1"/>
+    <row r="351" ht="18.75" customHeight="1"/>
+    <row r="352" ht="18.75" customHeight="1"/>
+    <row r="353" ht="18.75" customHeight="1"/>
+    <row r="354" ht="18.75" customHeight="1"/>
+    <row r="355" ht="18.75" customHeight="1"/>
+    <row r="356" ht="18.75" customHeight="1"/>
+    <row r="357" ht="18.75" customHeight="1"/>
+    <row r="358" ht="18.75" customHeight="1"/>
+    <row r="359" ht="18.75" customHeight="1"/>
+    <row r="360" ht="18.75" customHeight="1"/>
+    <row r="361" ht="18.75" customHeight="1"/>
+    <row r="362" ht="18.75" customHeight="1"/>
+    <row r="363" ht="18.75" customHeight="1"/>
+    <row r="364" ht="18.75" customHeight="1"/>
+    <row r="365" ht="18.75" customHeight="1"/>
+    <row r="366" ht="18.75" customHeight="1"/>
+    <row r="367" ht="18.75" customHeight="1"/>
+    <row r="368" ht="18.75" customHeight="1"/>
+    <row r="369" ht="18.75" customHeight="1"/>
+    <row r="370" ht="18.75" customHeight="1"/>
+    <row r="371" ht="18.75" customHeight="1"/>
+    <row r="372" ht="18.75" customHeight="1"/>
+    <row r="373" ht="18.75" customHeight="1"/>
+    <row r="374" ht="18.75" customHeight="1"/>
+    <row r="375" ht="18.75" customHeight="1"/>
+    <row r="376" ht="18.75" customHeight="1"/>
+    <row r="377" ht="18.75" customHeight="1"/>
+    <row r="378" ht="18.75" customHeight="1"/>
+    <row r="379" ht="18.75" customHeight="1"/>
+    <row r="380" ht="18.75" customHeight="1"/>
+    <row r="381" ht="18.75" customHeight="1"/>
+    <row r="382" ht="18.75" customHeight="1"/>
+    <row r="383" ht="18.75" customHeight="1"/>
+    <row r="384" ht="18.75" customHeight="1"/>
+    <row r="385" ht="18.75" customHeight="1"/>
+    <row r="386" ht="18.75" customHeight="1"/>
+    <row r="387" ht="18.75" customHeight="1"/>
+    <row r="388" ht="18.75" customHeight="1"/>
+    <row r="389" ht="18.75" customHeight="1"/>
+    <row r="390" ht="18.75" customHeight="1"/>
+    <row r="391" ht="18.75" customHeight="1"/>
+    <row r="392" ht="18.75" customHeight="1"/>
+    <row r="393" ht="18.75" customHeight="1"/>
+    <row r="394" ht="18.75" customHeight="1"/>
+    <row r="395" ht="18.75" customHeight="1"/>
+    <row r="396" ht="18.75" customHeight="1"/>
+    <row r="397" ht="18.75" customHeight="1"/>
+    <row r="398" ht="18.75" customHeight="1"/>
+    <row r="399" ht="18.75" customHeight="1"/>
+    <row r="400" ht="18.75" customHeight="1"/>
+    <row r="401" ht="18.75" customHeight="1"/>
+    <row r="402" ht="18.75" customHeight="1"/>
+    <row r="403" ht="18.75" customHeight="1"/>
+    <row r="404" ht="18.75" customHeight="1"/>
+    <row r="405" ht="18.75" customHeight="1"/>
+    <row r="406" ht="18.75" customHeight="1"/>
+    <row r="407" ht="18.75" customHeight="1"/>
+    <row r="408" ht="18.75" customHeight="1"/>
+    <row r="409" ht="18.75" customHeight="1"/>
+    <row r="410" ht="18.75" customHeight="1"/>
+    <row r="411" ht="18.75" customHeight="1"/>
+    <row r="412" ht="18.75" customHeight="1"/>
+    <row r="413" ht="18.75" customHeight="1"/>
+    <row r="414" ht="18.75" customHeight="1"/>
+    <row r="415" ht="18.75" customHeight="1"/>
+    <row r="416" ht="18.75" customHeight="1"/>
+    <row r="417" ht="18.75" customHeight="1"/>
+    <row r="418" ht="18.75" customHeight="1"/>
+    <row r="419" ht="18.75" customHeight="1"/>
+    <row r="420" ht="18.75" customHeight="1"/>
+    <row r="421" ht="18.75" customHeight="1"/>
+    <row r="422" ht="18.75" customHeight="1"/>
+    <row r="423" ht="18.75" customHeight="1"/>
+    <row r="424" ht="18.75" customHeight="1"/>
+    <row r="425" ht="18.75" customHeight="1"/>
+    <row r="426" ht="18.75" customHeight="1"/>
+    <row r="427" ht="18.75" customHeight="1"/>
+    <row r="428" ht="18.75" customHeight="1"/>
+    <row r="429" ht="18.75" customHeight="1"/>
+    <row r="430" ht="18.75" customHeight="1"/>
+    <row r="431" ht="18.75" customHeight="1"/>
+    <row r="432" ht="18.75" customHeight="1"/>
+    <row r="433" ht="18.75" customHeight="1"/>
+    <row r="434" ht="18.75" customHeight="1"/>
+    <row r="435" ht="18.75" customHeight="1"/>
+    <row r="436" ht="18.75" customHeight="1"/>
+    <row r="437" ht="18.75" customHeight="1"/>
+    <row r="438" ht="18.75" customHeight="1"/>
+    <row r="439" ht="18.75" customHeight="1"/>
+    <row r="440" ht="18.75" customHeight="1"/>
+    <row r="441" ht="18.75" customHeight="1"/>
+    <row r="442" ht="18.75" customHeight="1"/>
+    <row r="443" ht="18.75" customHeight="1"/>
+    <row r="444" ht="18.75" customHeight="1"/>
+    <row r="445" ht="18.75" customHeight="1"/>
+    <row r="446" ht="18.75" customHeight="1"/>
+    <row r="447" ht="18.75" customHeight="1"/>
+    <row r="448" ht="18.75" customHeight="1"/>
+    <row r="449" ht="18.75" customHeight="1"/>
+    <row r="450" ht="18.75" customHeight="1"/>
+    <row r="451" ht="18.75" customHeight="1"/>
+    <row r="452" ht="18.75" customHeight="1"/>
+    <row r="453" ht="18.75" customHeight="1"/>
+    <row r="454" ht="18.75" customHeight="1"/>
+    <row r="455" ht="18.75" customHeight="1"/>
+    <row r="456" ht="18.75" customHeight="1"/>
+    <row r="457" ht="18.75" customHeight="1"/>
+    <row r="458" ht="18.75" customHeight="1"/>
+    <row r="459" ht="18.75" customHeight="1"/>
+    <row r="460" ht="18.75" customHeight="1"/>
+    <row r="461" ht="18.75" customHeight="1"/>
+    <row r="462" ht="18.75" customHeight="1"/>
+    <row r="463" ht="18.75" customHeight="1"/>
+    <row r="464" ht="18.75" customHeight="1"/>
+    <row r="465" ht="18.75" customHeight="1"/>
+    <row r="466" ht="18.75" customHeight="1"/>
+    <row r="467" ht="18.75" customHeight="1"/>
+    <row r="468" ht="18.75" customHeight="1"/>
+    <row r="469" ht="18.75" customHeight="1"/>
+    <row r="470" ht="18.75" customHeight="1"/>
+    <row r="471" ht="18.75" customHeight="1"/>
+    <row r="472" ht="18.75" customHeight="1"/>
+    <row r="473" ht="18.75" customHeight="1"/>
+    <row r="474" ht="18.75" customHeight="1"/>
+    <row r="475" ht="18.75" customHeight="1"/>
+    <row r="476" ht="18.75" customHeight="1"/>
+    <row r="477" ht="18.75" customHeight="1"/>
+    <row r="478" ht="18.75" customHeight="1"/>
+    <row r="479" ht="18.75" customHeight="1"/>
+    <row r="480" ht="18.75" customHeight="1"/>
+    <row r="481" ht="18.75" customHeight="1"/>
+    <row r="482" ht="18.75" customHeight="1"/>
+    <row r="483" ht="18.75" customHeight="1"/>
+    <row r="484" ht="18.75" customHeight="1"/>
+    <row r="485" ht="18.75" customHeight="1"/>
+    <row r="486" ht="18.75" customHeight="1"/>
+    <row r="487" ht="18.75" customHeight="1"/>
+    <row r="488" ht="18.75" customHeight="1"/>
+    <row r="489" ht="18.75" customHeight="1"/>
+    <row r="490" ht="18.75" customHeight="1"/>
+    <row r="491" ht="18.75" customHeight="1"/>
+    <row r="492" ht="18.75" customHeight="1"/>
+    <row r="493" ht="18.75" customHeight="1"/>
+    <row r="494" ht="18.75" customHeight="1"/>
+    <row r="495" ht="18.75" customHeight="1"/>
+    <row r="496" ht="18.75" customHeight="1"/>
+    <row r="497" ht="18.75" customHeight="1"/>
+    <row r="498" ht="18.75" customHeight="1"/>
+    <row r="499" ht="18.75" customHeight="1"/>
+    <row r="500" ht="18.75" customHeight="1"/>
+    <row r="501" ht="18.75" customHeight="1"/>
+    <row r="502" ht="18.75" customHeight="1"/>
+    <row r="503" ht="18.75" customHeight="1"/>
+    <row r="504" ht="18.75" customHeight="1"/>
+    <row r="505" ht="18.75" customHeight="1"/>
+    <row r="506" ht="18.75" customHeight="1"/>
+    <row r="507" ht="18.75" customHeight="1"/>
+    <row r="508" ht="18.75" customHeight="1"/>
+    <row r="509" ht="18.75" customHeight="1"/>
+    <row r="510" ht="18.75" customHeight="1"/>
+    <row r="511" ht="18.75" customHeight="1"/>
+    <row r="512" ht="18.75" customHeight="1"/>
+    <row r="513" ht="18.75" customHeight="1"/>
+    <row r="514" ht="18.75" customHeight="1"/>
+    <row r="515" ht="18.75" customHeight="1"/>
+    <row r="516" ht="18.75" customHeight="1"/>
+    <row r="517" ht="18.75" customHeight="1"/>
+    <row r="518" ht="18.75" customHeight="1"/>
+    <row r="519" ht="18.75" customHeight="1"/>
+    <row r="520" ht="18.75" customHeight="1"/>
+    <row r="521" ht="18.75" customHeight="1"/>
+    <row r="522" ht="18.75" customHeight="1"/>
+    <row r="523" ht="18.75" customHeight="1"/>
+    <row r="524" ht="18.75" customHeight="1"/>
+    <row r="525" ht="18.75" customHeight="1"/>
+    <row r="526" ht="18.75" customHeight="1"/>
+    <row r="527" ht="18.75" customHeight="1"/>
+    <row r="528" ht="18.75" customHeight="1"/>
+    <row r="529" ht="18.75" customHeight="1"/>
+    <row r="530" ht="18.75" customHeight="1"/>
+    <row r="531" ht="18.75" customHeight="1"/>
+    <row r="532" ht="18.75" customHeight="1"/>
+    <row r="533" ht="18.75" customHeight="1"/>
+    <row r="534" ht="18.75" customHeight="1"/>
+    <row r="535" ht="18.75" customHeight="1"/>
+    <row r="536" ht="18.75" customHeight="1"/>
+    <row r="537" ht="18.75" customHeight="1"/>
+    <row r="538" ht="18.75" customHeight="1"/>
+    <row r="539" ht="18.75" customHeight="1"/>
+    <row r="540" ht="18.75" customHeight="1"/>
+    <row r="541" ht="18.75" customHeight="1"/>
+    <row r="542" ht="18.75" customHeight="1"/>
+    <row r="543" ht="18.75" customHeight="1"/>
+    <row r="544" ht="18.75" customHeight="1"/>
+    <row r="545" ht="18.75" customHeight="1"/>
+    <row r="546" ht="18.75" customHeight="1"/>
+    <row r="547" ht="18.75" customHeight="1"/>
+    <row r="548" ht="18.75" customHeight="1"/>
+    <row r="549" ht="18.75" customHeight="1"/>
+    <row r="550" ht="18.75" customHeight="1"/>
+    <row r="551" ht="18.75" customHeight="1"/>
+    <row r="552" ht="18.75" customHeight="1"/>
+    <row r="553" ht="18.75" customHeight="1"/>
+    <row r="554" ht="18.75" customHeight="1"/>
+    <row r="555" ht="18.75" customHeight="1"/>
+    <row r="556" ht="18.75" customHeight="1"/>
+    <row r="557" ht="18.75" customHeight="1"/>
+    <row r="558" ht="18.75" customHeight="1"/>
+    <row r="559" ht="18.75" customHeight="1"/>
+    <row r="560" ht="18.75" customHeight="1"/>
+    <row r="561" ht="18.75" customHeight="1"/>
+    <row r="562" ht="18.75" customHeight="1"/>
+    <row r="563" ht="18.75" customHeight="1"/>
+    <row r="564" ht="18.75" customHeight="1"/>
+    <row r="565" ht="18.75" customHeight="1"/>
+    <row r="566" ht="18.75" customHeight="1"/>
+    <row r="567" ht="18.75" customHeight="1"/>
+    <row r="568" ht="18.75" customHeight="1"/>
+    <row r="569" ht="18.75" customHeight="1"/>
+    <row r="570" ht="18.75" customHeight="1"/>
+    <row r="571" ht="18.75" customHeight="1"/>
+    <row r="572" ht="18.75" customHeight="1"/>
+    <row r="573" ht="18.75" customHeight="1"/>
+    <row r="574" ht="18.75" customHeight="1"/>
+    <row r="575" ht="18.75" customHeight="1"/>
+    <row r="576" ht="18.75" customHeight="1"/>
+    <row r="577" ht="18.75" customHeight="1"/>
+    <row r="578" ht="18.75" customHeight="1"/>
+    <row r="579" ht="18.75" customHeight="1"/>
+    <row r="580" ht="18.75" customHeight="1"/>
+    <row r="581" ht="18.75" customHeight="1"/>
+    <row r="582" ht="18.75" customHeight="1"/>
+    <row r="583" ht="18.75" customHeight="1"/>
+    <row r="584" ht="18.75" customHeight="1"/>
+    <row r="585" ht="18.75" customHeight="1"/>
+    <row r="586" ht="18.75" customHeight="1"/>
+    <row r="587" ht="18.75" customHeight="1"/>
+    <row r="588" ht="18.75" customHeight="1"/>
+    <row r="589" ht="18.75" customHeight="1"/>
+    <row r="590" ht="18.75" customHeight="1"/>
+    <row r="591" ht="18.75" customHeight="1"/>
+    <row r="592" ht="18.75" customHeight="1"/>
+    <row r="593" ht="18.75" customHeight="1"/>
+    <row r="594" ht="18.75" customHeight="1"/>
+    <row r="595" ht="18.75" customHeight="1"/>
+    <row r="596" ht="18.75" customHeight="1"/>
+    <row r="597" ht="18.75" customHeight="1"/>
+    <row r="598" ht="18.75" customHeight="1"/>
+    <row r="599" ht="18.75" customHeight="1"/>
+    <row r="600" ht="18.75" customHeight="1"/>
+    <row r="601" ht="18.75" customHeight="1"/>
+    <row r="602" ht="18.75" customHeight="1"/>
+    <row r="603" ht="18.75" customHeight="1"/>
+    <row r="604" ht="18.75" customHeight="1"/>
+    <row r="605" ht="18.75" customHeight="1"/>
+    <row r="606" ht="18.75" customHeight="1"/>
+    <row r="607" ht="18.75" customHeight="1"/>
+    <row r="608" ht="18.75" customHeight="1"/>
+    <row r="609" ht="18.75" customHeight="1"/>
+    <row r="610" ht="18.75" customHeight="1"/>
+    <row r="611" ht="18.75" customHeight="1"/>
+    <row r="612" ht="18.75" customHeight="1"/>
+    <row r="613" ht="18.75" customHeight="1"/>
+    <row r="614" ht="18.75" customHeight="1"/>
+    <row r="615" ht="18.75" customHeight="1"/>
+    <row r="616" ht="18.75" customHeight="1"/>
+    <row r="617" ht="18.75" customHeight="1"/>
+    <row r="618" ht="18.75" customHeight="1"/>
+    <row r="619" ht="18.75" customHeight="1"/>
+    <row r="620" ht="18.75" customHeight="1"/>
+    <row r="621" ht="18.75" customHeight="1"/>
+    <row r="622" ht="18.75" customHeight="1"/>
+    <row r="623" ht="18.75" customHeight="1"/>
+    <row r="624" ht="18.75" customHeight="1"/>
+    <row r="625" ht="18.75" customHeight="1"/>
+    <row r="626" ht="18.75" customHeight="1"/>
+    <row r="627" ht="18.75" customHeight="1"/>
+    <row r="628" ht="18.75" customHeight="1"/>
+    <row r="629" ht="18.75" customHeight="1"/>
+    <row r="630" ht="18.75" customHeight="1"/>
+    <row r="631" ht="18.75" customHeight="1"/>
+    <row r="632" ht="18.75" customHeight="1"/>
+    <row r="633" ht="18.75" customHeight="1"/>
+    <row r="634" ht="18.75" customHeight="1"/>
+    <row r="635" ht="18.75" customHeight="1"/>
+    <row r="636" ht="18.75" customHeight="1"/>
+    <row r="637" ht="18.75" customHeight="1"/>
+    <row r="638" ht="18.75" customHeight="1"/>
+    <row r="639" ht="18.75" customHeight="1"/>
+    <row r="640" ht="18.75" customHeight="1"/>
+    <row r="641" ht="18.75" customHeight="1"/>
+    <row r="642" ht="18.75" customHeight="1"/>
+    <row r="643" ht="18.75" customHeight="1"/>
+    <row r="644" ht="18.75" customHeight="1"/>
+    <row r="645" ht="18.75" customHeight="1"/>
+    <row r="646" ht="18.75" customHeight="1"/>
+    <row r="647" ht="18.75" customHeight="1"/>
+    <row r="648" ht="18.75" customHeight="1"/>
+    <row r="649" ht="18.75" customHeight="1"/>
+    <row r="650" ht="18.75" customHeight="1"/>
+    <row r="651" ht="18.75" customHeight="1"/>
+    <row r="652" ht="18.75" customHeight="1"/>
+    <row r="653" ht="18.75" customHeight="1"/>
+    <row r="654" ht="18.75" customHeight="1"/>
+    <row r="655" ht="18.75" customHeight="1"/>
+    <row r="656" ht="18.75" customHeight="1"/>
+    <row r="657" ht="18.75" customHeight="1"/>
+    <row r="658" ht="18.75" customHeight="1"/>
+    <row r="659" ht="18.75" customHeight="1"/>
+    <row r="660" ht="18.75" customHeight="1"/>
+    <row r="661" ht="18.75" customHeight="1"/>
+    <row r="662" ht="18.75" customHeight="1"/>
+    <row r="663" ht="18.75" customHeight="1"/>
+    <row r="664" ht="18.75" customHeight="1"/>
+    <row r="665" ht="18.75" customHeight="1"/>
+    <row r="666" ht="18.75" customHeight="1"/>
+    <row r="667" ht="18.75" customHeight="1"/>
+    <row r="668" ht="18.75" customHeight="1"/>
+    <row r="669" ht="18.75" customHeight="1"/>
+    <row r="670" ht="18.75" customHeight="1"/>
+    <row r="671" ht="18.75" customHeight="1"/>
+    <row r="672" ht="18.75" customHeight="1"/>
+    <row r="673" ht="18.75" customHeight="1"/>
+    <row r="674" ht="18.75" customHeight="1"/>
+    <row r="675" ht="18.75" customHeight="1"/>
+    <row r="676" ht="18.75" customHeight="1"/>
+    <row r="677" ht="18.75" customHeight="1"/>
+    <row r="678" ht="18.75" customHeight="1"/>
+    <row r="679" ht="18.75" customHeight="1"/>
+    <row r="680" ht="18.75" customHeight="1"/>
+    <row r="681" ht="18.75" customHeight="1"/>
+    <row r="682" ht="18.75" customHeight="1"/>
+    <row r="683" ht="18.75" customHeight="1"/>
+    <row r="684" ht="18.75" customHeight="1"/>
+    <row r="685" ht="18.75" customHeight="1"/>
+    <row r="686" ht="18.75" customHeight="1"/>
+    <row r="687" ht="18.75" customHeight="1"/>
+    <row r="688" ht="18.75" customHeight="1"/>
+    <row r="689" ht="18.75" customHeight="1"/>
+    <row r="690" ht="18.75" customHeight="1"/>
+    <row r="691" ht="18.75" customHeight="1"/>
+    <row r="692" ht="18.75" customHeight="1"/>
+    <row r="693" ht="18.75" customHeight="1"/>
+    <row r="694" ht="18.75" customHeight="1"/>
+    <row r="695" ht="18.75" customHeight="1"/>
+    <row r="696" ht="18.75" customHeight="1"/>
+    <row r="697" ht="18.75" customHeight="1"/>
+    <row r="698" ht="18.75" customHeight="1"/>
+    <row r="699" ht="18.75" customHeight="1"/>
+    <row r="700" ht="18.75" customHeight="1"/>
+    <row r="701" ht="18.75" customHeight="1"/>
+    <row r="702" ht="18.75" customHeight="1"/>
+    <row r="703" ht="18.75" customHeight="1"/>
+    <row r="704" ht="18.75" customHeight="1"/>
+    <row r="705" ht="18.75" customHeight="1"/>
+    <row r="706" ht="18.75" customHeight="1"/>
+    <row r="707" ht="18.75" customHeight="1"/>
+    <row r="708" ht="18.75" customHeight="1"/>
+    <row r="709" ht="18.75" customHeight="1"/>
+    <row r="710" ht="18.75" customHeight="1"/>
+    <row r="711" ht="18.75" customHeight="1"/>
+    <row r="712" ht="18.75" customHeight="1"/>
+    <row r="713" ht="18.75" customHeight="1"/>
+    <row r="714" ht="18.75" customHeight="1"/>
+    <row r="715" ht="18.75" customHeight="1"/>
+    <row r="716" ht="18.75" customHeight="1"/>
+    <row r="717" ht="18.75" customHeight="1"/>
+    <row r="718" ht="18.75" customHeight="1"/>
+    <row r="719" ht="18.75" customHeight="1"/>
+    <row r="720" ht="18.75" customHeight="1"/>
+    <row r="721" ht="18.75" customHeight="1"/>
+    <row r="722" ht="18.75" customHeight="1"/>
+    <row r="723" ht="18.75" customHeight="1"/>
+    <row r="724" ht="18.75" customHeight="1"/>
+    <row r="725" ht="18.75" customHeight="1"/>
+    <row r="726" ht="18.75" customHeight="1"/>
+    <row r="727" ht="18.75" customHeight="1"/>
+    <row r="728" ht="18.75" customHeight="1"/>
+    <row r="729" ht="18.75" customHeight="1"/>
+    <row r="730" ht="18.75" customHeight="1"/>
+    <row r="731" ht="18.75" customHeight="1"/>
+    <row r="732" ht="18.75" customHeight="1"/>
+    <row r="733" ht="18.75" customHeight="1"/>
+    <row r="734" ht="18.75" customHeight="1"/>
+    <row r="735" ht="18.75" customHeight="1"/>
+    <row r="736" ht="18.75" customHeight="1"/>
+    <row r="737" ht="18.75" customHeight="1"/>
+    <row r="738" ht="18.75" customHeight="1"/>
+    <row r="739" ht="18.75" customHeight="1"/>
+    <row r="740" ht="18.75" customHeight="1"/>
+    <row r="741" ht="18.75" customHeight="1"/>
+    <row r="742" ht="18.75" customHeight="1"/>
+    <row r="743" ht="18.75" customHeight="1"/>
+    <row r="744" ht="18.75" customHeight="1"/>
+    <row r="745" ht="18.75" customHeight="1"/>
+    <row r="746" ht="18.75" customHeight="1"/>
+    <row r="747" ht="18.75" customHeight="1"/>
+    <row r="748" ht="18.75" customHeight="1"/>
+    <row r="749" ht="18.75" customHeight="1"/>
+    <row r="750" ht="18.75" customHeight="1"/>
+    <row r="751" ht="18.75" customHeight="1"/>
+    <row r="752" ht="18.75" customHeight="1"/>
+    <row r="753" ht="18.75" customHeight="1"/>
+    <row r="754" ht="18.75" customHeight="1"/>
+    <row r="755" ht="18.75" customHeight="1"/>
+    <row r="756" ht="18.75" customHeight="1"/>
+    <row r="757" ht="18.75" customHeight="1"/>
+    <row r="758" ht="18.75" customHeight="1"/>
+    <row r="759" ht="18.75" customHeight="1"/>
+    <row r="760" ht="18.75" customHeight="1"/>
+    <row r="761" ht="18.75" customHeight="1"/>
+    <row r="762" ht="18.75" customHeight="1"/>
+    <row r="763" ht="18.75" customHeight="1"/>
+    <row r="764" ht="18.75" customHeight="1"/>
+    <row r="765" ht="18.75" customHeight="1"/>
+    <row r="766" ht="18.75" customHeight="1"/>
+    <row r="767" ht="18.75" customHeight="1"/>
+    <row r="768" ht="18.75" customHeight="1"/>
+    <row r="769" ht="18.75" customHeight="1"/>
+    <row r="770" ht="18.75" customHeight="1"/>
+    <row r="771" ht="18.75" customHeight="1"/>
+    <row r="772" ht="18.75" customHeight="1"/>
+    <row r="773" ht="18.75" customHeight="1"/>
+    <row r="774" ht="18.75" customHeight="1"/>
+    <row r="775" ht="18.75" customHeight="1"/>
+    <row r="776" ht="18.75" customHeight="1"/>
+    <row r="777" ht="18.75" customHeight="1"/>
+    <row r="778" ht="18.75" customHeight="1"/>
+    <row r="779" ht="18.75" customHeight="1"/>
+    <row r="780" ht="18.75" customHeight="1"/>
+    <row r="781" ht="18.75" customHeight="1"/>
+    <row r="782" ht="18.75" customHeight="1"/>
+    <row r="783" ht="18.75" customHeight="1"/>
+    <row r="784" ht="18.75" customHeight="1"/>
+    <row r="785" ht="18.75" customHeight="1"/>
+    <row r="786" ht="18.75" customHeight="1"/>
+    <row r="787" ht="18.75" customHeight="1"/>
+    <row r="788" ht="18.75" customHeight="1"/>
+    <row r="789" ht="18.75" customHeight="1"/>
+    <row r="790" ht="18.75" customHeight="1"/>
+    <row r="791" ht="18.75" customHeight="1"/>
+    <row r="792" ht="18.75" customHeight="1"/>
+    <row r="793" ht="18.75" customHeight="1"/>
+    <row r="794" ht="18.75" customHeight="1"/>
+    <row r="795" ht="18.75" customHeight="1"/>
+    <row r="796" ht="18.75" customHeight="1"/>
+    <row r="797" ht="18.75" customHeight="1"/>
+    <row r="798" ht="18.75" customHeight="1"/>
+    <row r="799" ht="18.75" customHeight="1"/>
+    <row r="800" ht="18.75" customHeight="1"/>
+    <row r="801" ht="18.75" customHeight="1"/>
+    <row r="802" ht="18.75" customHeight="1"/>
+    <row r="803" ht="18.75" customHeight="1"/>
+    <row r="804" ht="18.75" customHeight="1"/>
+    <row r="805" ht="18.75" customHeight="1"/>
+    <row r="806" ht="18.75" customHeight="1"/>
+    <row r="807" ht="18.75" customHeight="1"/>
+    <row r="808" ht="18.75" customHeight="1"/>
+    <row r="809" ht="18.75" customHeight="1"/>
+    <row r="810" ht="18.75" customHeight="1"/>
+    <row r="811" ht="18.75" customHeight="1"/>
+    <row r="812" ht="18.75" customHeight="1"/>
+    <row r="813" ht="18.75" customHeight="1"/>
+    <row r="814" ht="18.75" customHeight="1"/>
+    <row r="815" ht="18.75" customHeight="1"/>
+    <row r="816" ht="18.75" customHeight="1"/>
+    <row r="817" ht="18.75" customHeight="1"/>
+    <row r="818" ht="18.75" customHeight="1"/>
+    <row r="819" ht="18.75" customHeight="1"/>
+    <row r="820" ht="18.75" customHeight="1"/>
+    <row r="821" ht="18.75" customHeight="1"/>
+    <row r="822" ht="18.75" customHeight="1"/>
+    <row r="823" ht="18.75" customHeight="1"/>
+    <row r="824" ht="18.75" customHeight="1"/>
+    <row r="825" ht="18.75" customHeight="1"/>
+    <row r="826" ht="18.75" customHeight="1"/>
+    <row r="827" ht="18.75" customHeight="1"/>
+    <row r="828" ht="18.75" customHeight="1"/>
+    <row r="829" ht="18.75" customHeight="1"/>
+    <row r="830" ht="18.75" customHeight="1"/>
+    <row r="831" ht="18.75" customHeight="1"/>
+    <row r="832" ht="18.75" customHeight="1"/>
+    <row r="833" ht="18.75" customHeight="1"/>
+    <row r="834" ht="18.75" customHeight="1"/>
+    <row r="835" ht="18.75" customHeight="1"/>
+    <row r="836" ht="18.75" customHeight="1"/>
+    <row r="837" ht="18.75" customHeight="1"/>
+    <row r="838" ht="18.75" customHeight="1"/>
+    <row r="839" ht="18.75" customHeight="1"/>
+    <row r="840" ht="18.75" customHeight="1"/>
+    <row r="841" ht="18.75" customHeight="1"/>
+    <row r="842" ht="18.75" customHeight="1"/>
+    <row r="843" ht="18.75" customHeight="1"/>
+    <row r="844" ht="18.75" customHeight="1"/>
+    <row r="845" ht="18.75" customHeight="1"/>
+    <row r="846" ht="18.75" customHeight="1"/>
+    <row r="847" ht="18.75" customHeight="1"/>
+    <row r="848" ht="18.75" customHeight="1"/>
+    <row r="849" ht="18.75" customHeight="1"/>
+    <row r="850" ht="18.75" customHeight="1"/>
+    <row r="851" ht="18.75" customHeight="1"/>
+    <row r="852" ht="18.75" customHeight="1"/>
+    <row r="853" ht="18.75" customHeight="1"/>
+    <row r="854" ht="18.75" customHeight="1"/>
+    <row r="855" ht="18.75" customHeight="1"/>
+    <row r="856" ht="18.75" customHeight="1"/>
+    <row r="857" ht="18.75" customHeight="1"/>
+    <row r="858" ht="18.75" customHeight="1"/>
+    <row r="859" ht="18.75" customHeight="1"/>
+    <row r="860" ht="18.75" customHeight="1"/>
+    <row r="861" ht="18.75" customHeight="1"/>
+    <row r="862" ht="18.75" customHeight="1"/>
+    <row r="863" ht="18.75" customHeight="1"/>
+    <row r="864" ht="18.75" customHeight="1"/>
+    <row r="865" ht="18.75" customHeight="1"/>
+    <row r="866" ht="18.75" customHeight="1"/>
+    <row r="867" ht="18.75" customHeight="1"/>
+    <row r="868" ht="18.75" customHeight="1"/>
+    <row r="869" ht="18.75" customHeight="1"/>
+    <row r="870" ht="18.75" customHeight="1"/>
+    <row r="871" ht="18.75" customHeight="1"/>
+    <row r="872" ht="18.75" customHeight="1"/>
+    <row r="873" ht="18.75" customHeight="1"/>
+    <row r="874" ht="18.75" customHeight="1"/>
+    <row r="875" ht="18.75" customHeight="1"/>
+    <row r="876" ht="18.75" customHeight="1"/>
+    <row r="877" ht="18.75" customHeight="1"/>
+    <row r="878" ht="18.75" customHeight="1"/>
+    <row r="879" ht="18.75" customHeight="1"/>
+    <row r="880" ht="18.75" customHeight="1"/>
+    <row r="881" ht="18.75" customHeight="1"/>
+    <row r="882" ht="18.75" customHeight="1"/>
+    <row r="883" ht="18.75" customHeight="1"/>
+    <row r="884" ht="18.75" customHeight="1"/>
+    <row r="885" ht="18.75" customHeight="1"/>
+    <row r="886" ht="18.75" customHeight="1"/>
+    <row r="887" ht="18.75" customHeight="1"/>
+    <row r="888" ht="18.75" customHeight="1"/>
+    <row r="889" ht="18.75" customHeight="1"/>
+    <row r="890" ht="18.75" customHeight="1"/>
+    <row r="891" ht="18.75" customHeight="1"/>
+    <row r="892" ht="18.75" customHeight="1"/>
+    <row r="893" ht="18.75" customHeight="1"/>
+    <row r="894" ht="18.75" customHeight="1"/>
+    <row r="895" ht="18.75" customHeight="1"/>
+    <row r="896" ht="18.75" customHeight="1"/>
+    <row r="897" ht="18.75" customHeight="1"/>
+    <row r="898" ht="18.75" customHeight="1"/>
+    <row r="899" ht="18.75" customHeight="1"/>
+    <row r="900" ht="18.75" customHeight="1"/>
+    <row r="901" ht="18.75" customHeight="1"/>
+    <row r="902" ht="18.75" customHeight="1"/>
+    <row r="903" ht="18.75" customHeight="1"/>
+    <row r="904" ht="18.75" customHeight="1"/>
+    <row r="905" ht="18.75" customHeight="1"/>
+    <row r="906" ht="18.75" customHeight="1"/>
+    <row r="907" ht="18.75" customHeight="1"/>
+    <row r="908" ht="18.75" customHeight="1"/>
+    <row r="909" ht="18.75" customHeight="1"/>
+    <row r="910" ht="18.75" customHeight="1"/>
+    <row r="911" ht="18.75" customHeight="1"/>
+    <row r="912" ht="18.75" customHeight="1"/>
+    <row r="913" ht="18.75" customHeight="1"/>
+    <row r="914" ht="18.75" customHeight="1"/>
+    <row r="915" ht="18.75" customHeight="1"/>
+    <row r="916" ht="18.75" customHeight="1"/>
+    <row r="917" ht="18.75" customHeight="1"/>
+    <row r="918" ht="18.75" customHeight="1"/>
+    <row r="919" ht="18.75" customHeight="1"/>
+    <row r="920" ht="18.75" customHeight="1"/>
+    <row r="921" ht="18.75" customHeight="1"/>
+    <row r="922" ht="18.75" customHeight="1"/>
+    <row r="923" ht="18.75" customHeight="1"/>
+    <row r="924" ht="18.75" customHeight="1"/>
+    <row r="925" ht="18.75" customHeight="1"/>
+    <row r="926" ht="18.75" customHeight="1"/>
+    <row r="927" ht="18.75" customHeight="1"/>
+    <row r="928" ht="18.75" customHeight="1"/>
+    <row r="929" ht="18.75" customHeight="1"/>
+    <row r="930" ht="18.75" customHeight="1"/>
+    <row r="931" ht="18.75" customHeight="1"/>
+    <row r="932" ht="18.75" customHeight="1"/>
+    <row r="933" ht="18.75" customHeight="1"/>
+    <row r="934" ht="18.75" customHeight="1"/>
+    <row r="935" ht="18.75" customHeight="1"/>
+    <row r="936" ht="18.75" customHeight="1"/>
+    <row r="937" ht="18.75" customHeight="1"/>
+    <row r="938" ht="18.75" customHeight="1"/>
+    <row r="939" ht="18.75" customHeight="1"/>
+    <row r="940" ht="18.75" customHeight="1"/>
+    <row r="941" ht="18.75" customHeight="1"/>
+    <row r="942" ht="18.75" customHeight="1"/>
+    <row r="943" ht="18.75" customHeight="1"/>
+    <row r="944" ht="18.75" customHeight="1"/>
+    <row r="945" ht="18.75" customHeight="1"/>
+    <row r="946" ht="18.75" customHeight="1"/>
+    <row r="947" ht="18.75" customHeight="1"/>
+    <row r="948" ht="18.75" customHeight="1"/>
+    <row r="949" ht="18.75" customHeight="1"/>
+    <row r="950" ht="18.75" customHeight="1"/>
+    <row r="951" ht="18.75" customHeight="1"/>
+    <row r="952" ht="18.75" customHeight="1"/>
+    <row r="953" ht="18.75" customHeight="1"/>
+    <row r="954" ht="18.75" customHeight="1"/>
+    <row r="955" ht="18.75" customHeight="1"/>
+    <row r="956" ht="18.75" customHeight="1"/>
+    <row r="957" ht="18.75" customHeight="1"/>
+    <row r="958" ht="18.75" customHeight="1"/>
+    <row r="959" ht="18.75" customHeight="1"/>
+    <row r="960" ht="18.75" customHeight="1"/>
+    <row r="961" ht="18.75" customHeight="1"/>
+    <row r="962" ht="18.75" customHeight="1"/>
+    <row r="963" ht="18.75" customHeight="1"/>
+    <row r="964" ht="18.75" customHeight="1"/>
+    <row r="965" ht="18.75" customHeight="1"/>
+    <row r="966" ht="18.75" customHeight="1"/>
+    <row r="967" ht="18.75" customHeight="1"/>
+    <row r="968" ht="18.75" customHeight="1"/>
+    <row r="969" ht="18.75" customHeight="1"/>
+    <row r="970" ht="18.75" customHeight="1"/>
+    <row r="971" ht="18.75" customHeight="1"/>
+    <row r="972" ht="18.75" customHeight="1"/>
+    <row r="973" ht="18.75" customHeight="1"/>
+    <row r="974" ht="18.75" customHeight="1"/>
+    <row r="975" ht="18.75" customHeight="1"/>
+    <row r="976" ht="18.75" customHeight="1"/>
+    <row r="977" ht="18.75" customHeight="1"/>
+    <row r="978" ht="18.75" customHeight="1"/>
+    <row r="979" ht="18.75" customHeight="1"/>
+    <row r="980" ht="18.75" customHeight="1"/>
+    <row r="981" ht="18.75" customHeight="1"/>
+    <row r="982" ht="18.75" customHeight="1"/>
+    <row r="983" ht="18.75" customHeight="1"/>
+    <row r="984" ht="18.75" customHeight="1"/>
+    <row r="985" ht="18.75" customHeight="1"/>
+    <row r="986" ht="18.75" customHeight="1"/>
+    <row r="987" ht="18.75" customHeight="1"/>
+    <row r="988" ht="18.75" customHeight="1"/>
+    <row r="989" ht="18.75" customHeight="1"/>
+    <row r="990" ht="18.75" customHeight="1"/>
+    <row r="991" ht="18.75" customHeight="1"/>
+    <row r="992" ht="18.75" customHeight="1"/>
+    <row r="993" ht="18.75" customHeight="1"/>
+    <row r="994" ht="18.75" customHeight="1"/>
+    <row r="995" ht="18.75" customHeight="1"/>
+    <row r="996" ht="18.75" customHeight="1"/>
+    <row r="997" ht="18.75" customHeight="1"/>
+    <row r="998" ht="18.75" customHeight="1"/>
+    <row r="999" ht="18.75" customHeight="1"/>
+    <row r="1000" ht="18.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/システム構成図.xlsx
+++ b/システム構成図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GWー221\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76B5C21-75C4-44D8-9B30-B44166DA9C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2919D033-3B35-4F0B-A6B6-B7E2D2984F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="12675" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1485" windowWidth="12675" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,55 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">対象先： </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>kenshu-test.net ]</t>
-    </r>
-    <rPh sb="1" eb="3">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>サキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※普段は停めてます。</t>
-    <rPh sb="1" eb="3">
-      <t>フダン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,13 +50,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -136,7 +86,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2614,1019 +2564,1015 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:9" ht="18.75" customHeight="1"/>
-    <row r="2" spans="9:9" ht="18.75" customHeight="1">
-      <c r="I2" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="9:9" ht="18.75" customHeight="1">
-      <c r="I3" s="2" t="s">
-        <v>1</v>
-      </c>
+    <row r="3" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="9:9" ht="18.75" customHeight="1"/>
-    <row r="5" spans="9:9" ht="18.75" customHeight="1"/>
-    <row r="6" spans="9:9" ht="18.75" customHeight="1"/>
-    <row r="7" spans="9:9" ht="18.75" customHeight="1"/>
-    <row r="8" spans="9:9" ht="18.75" customHeight="1"/>
-    <row r="9" spans="9:9" ht="18.75" customHeight="1"/>
-    <row r="10" spans="9:9" ht="18.75" customHeight="1"/>
-    <row r="11" spans="9:9" ht="18.75" customHeight="1"/>
-    <row r="12" spans="9:9" ht="18.75" customHeight="1"/>
-    <row r="13" spans="9:9" ht="18.75" customHeight="1"/>
-    <row r="14" spans="9:9" ht="18.75" customHeight="1"/>
-    <row r="15" spans="9:9" ht="18.75" customHeight="1"/>
-    <row r="16" spans="9:9" ht="18.75" customHeight="1"/>
-    <row r="17" ht="18.75" customHeight="1"/>
-    <row r="18" ht="18.75" customHeight="1"/>
-    <row r="19" ht="18.75" customHeight="1"/>
-    <row r="20" ht="18.75" customHeight="1"/>
-    <row r="21" ht="18.75" customHeight="1"/>
-    <row r="22" ht="18.75" customHeight="1"/>
-    <row r="23" ht="18.75" customHeight="1"/>
-    <row r="24" ht="18.75" customHeight="1"/>
-    <row r="25" ht="18.75" customHeight="1"/>
-    <row r="26" ht="18.75" customHeight="1"/>
-    <row r="27" ht="18.75" customHeight="1"/>
-    <row r="28" ht="18.75" customHeight="1"/>
-    <row r="29" ht="18.75" customHeight="1"/>
-    <row r="30" ht="18.75" customHeight="1"/>
-    <row r="31" ht="18.75" customHeight="1"/>
-    <row r="32" ht="18.75" customHeight="1"/>
-    <row r="33" ht="18.75" customHeight="1"/>
-    <row r="34" ht="18.75" customHeight="1"/>
-    <row r="35" ht="18.75" customHeight="1"/>
-    <row r="36" ht="18.75" customHeight="1"/>
-    <row r="37" ht="18.75" customHeight="1"/>
-    <row r="38" ht="18.75" customHeight="1"/>
-    <row r="39" ht="18.75" customHeight="1"/>
-    <row r="40" ht="18.75" customHeight="1"/>
-    <row r="41" ht="18.75" customHeight="1"/>
-    <row r="42" ht="18.75" customHeight="1"/>
-    <row r="43" ht="18.75" customHeight="1"/>
-    <row r="44" ht="18.75" customHeight="1"/>
-    <row r="45" ht="18.75" customHeight="1"/>
-    <row r="46" ht="18.75" customHeight="1"/>
-    <row r="47" ht="18.75" customHeight="1"/>
-    <row r="48" ht="18.75" customHeight="1"/>
-    <row r="49" ht="18.75" customHeight="1"/>
-    <row r="50" ht="18.75" customHeight="1"/>
-    <row r="51" ht="18.75" customHeight="1"/>
-    <row r="52" ht="18.75" customHeight="1"/>
-    <row r="53" ht="18.75" customHeight="1"/>
-    <row r="54" ht="18.75" customHeight="1"/>
-    <row r="55" ht="18.75" customHeight="1"/>
-    <row r="56" ht="18.75" customHeight="1"/>
-    <row r="57" ht="18.75" customHeight="1"/>
-    <row r="58" ht="18.75" customHeight="1"/>
-    <row r="59" ht="18.75" customHeight="1"/>
-    <row r="60" ht="18.75" customHeight="1"/>
-    <row r="61" ht="18.75" customHeight="1"/>
-    <row r="62" ht="18.75" customHeight="1"/>
-    <row r="63" ht="18.75" customHeight="1"/>
-    <row r="64" ht="18.75" customHeight="1"/>
-    <row r="65" ht="18.75" customHeight="1"/>
-    <row r="66" ht="18.75" customHeight="1"/>
-    <row r="67" ht="18.75" customHeight="1"/>
-    <row r="68" ht="18.75" customHeight="1"/>
-    <row r="69" ht="18.75" customHeight="1"/>
-    <row r="70" ht="18.75" customHeight="1"/>
-    <row r="71" ht="18.75" customHeight="1"/>
-    <row r="72" ht="18.75" customHeight="1"/>
-    <row r="73" ht="18.75" customHeight="1"/>
-    <row r="74" ht="18.75" customHeight="1"/>
-    <row r="75" ht="18.75" customHeight="1"/>
-    <row r="76" ht="18.75" customHeight="1"/>
-    <row r="77" ht="18.75" customHeight="1"/>
-    <row r="78" ht="18.75" customHeight="1"/>
-    <row r="79" ht="18.75" customHeight="1"/>
-    <row r="80" ht="18.75" customHeight="1"/>
-    <row r="81" ht="18.75" customHeight="1"/>
-    <row r="82" ht="18.75" customHeight="1"/>
-    <row r="83" ht="18.75" customHeight="1"/>
-    <row r="84" ht="18.75" customHeight="1"/>
-    <row r="85" ht="18.75" customHeight="1"/>
-    <row r="86" ht="18.75" customHeight="1"/>
-    <row r="87" ht="18.75" customHeight="1"/>
-    <row r="88" ht="18.75" customHeight="1"/>
-    <row r="89" ht="18.75" customHeight="1"/>
-    <row r="90" ht="18.75" customHeight="1"/>
-    <row r="91" ht="18.75" customHeight="1"/>
-    <row r="92" ht="18.75" customHeight="1"/>
-    <row r="93" ht="18.75" customHeight="1"/>
-    <row r="94" ht="18.75" customHeight="1"/>
-    <row r="95" ht="18.75" customHeight="1"/>
-    <row r="96" ht="18.75" customHeight="1"/>
-    <row r="97" ht="18.75" customHeight="1"/>
-    <row r="98" ht="18.75" customHeight="1"/>
-    <row r="99" ht="18.75" customHeight="1"/>
-    <row r="100" ht="18.75" customHeight="1"/>
-    <row r="101" ht="18.75" customHeight="1"/>
-    <row r="102" ht="18.75" customHeight="1"/>
-    <row r="103" ht="18.75" customHeight="1"/>
-    <row r="104" ht="18.75" customHeight="1"/>
-    <row r="105" ht="18.75" customHeight="1"/>
-    <row r="106" ht="18.75" customHeight="1"/>
-    <row r="107" ht="18.75" customHeight="1"/>
-    <row r="108" ht="18.75" customHeight="1"/>
-    <row r="109" ht="18.75" customHeight="1"/>
-    <row r="110" ht="18.75" customHeight="1"/>
-    <row r="111" ht="18.75" customHeight="1"/>
-    <row r="112" ht="18.75" customHeight="1"/>
-    <row r="113" ht="18.75" customHeight="1"/>
-    <row r="114" ht="18.75" customHeight="1"/>
-    <row r="115" ht="18.75" customHeight="1"/>
-    <row r="116" ht="18.75" customHeight="1"/>
-    <row r="117" ht="18.75" customHeight="1"/>
-    <row r="118" ht="18.75" customHeight="1"/>
-    <row r="119" ht="18.75" customHeight="1"/>
-    <row r="120" ht="18.75" customHeight="1"/>
-    <row r="121" ht="18.75" customHeight="1"/>
-    <row r="122" ht="18.75" customHeight="1"/>
-    <row r="123" ht="18.75" customHeight="1"/>
-    <row r="124" ht="18.75" customHeight="1"/>
-    <row r="125" ht="18.75" customHeight="1"/>
-    <row r="126" ht="18.75" customHeight="1"/>
-    <row r="127" ht="18.75" customHeight="1"/>
-    <row r="128" ht="18.75" customHeight="1"/>
-    <row r="129" ht="18.75" customHeight="1"/>
-    <row r="130" ht="18.75" customHeight="1"/>
-    <row r="131" ht="18.75" customHeight="1"/>
-    <row r="132" ht="18.75" customHeight="1"/>
-    <row r="133" ht="18.75" customHeight="1"/>
-    <row r="134" ht="18.75" customHeight="1"/>
-    <row r="135" ht="18.75" customHeight="1"/>
-    <row r="136" ht="18.75" customHeight="1"/>
-    <row r="137" ht="18.75" customHeight="1"/>
-    <row r="138" ht="18.75" customHeight="1"/>
-    <row r="139" ht="18.75" customHeight="1"/>
-    <row r="140" ht="18.75" customHeight="1"/>
-    <row r="141" ht="18.75" customHeight="1"/>
-    <row r="142" ht="18.75" customHeight="1"/>
-    <row r="143" ht="18.75" customHeight="1"/>
-    <row r="144" ht="18.75" customHeight="1"/>
-    <row r="145" ht="18.75" customHeight="1"/>
-    <row r="146" ht="18.75" customHeight="1"/>
-    <row r="147" ht="18.75" customHeight="1"/>
-    <row r="148" ht="18.75" customHeight="1"/>
-    <row r="149" ht="18.75" customHeight="1"/>
-    <row r="150" ht="18.75" customHeight="1"/>
-    <row r="151" ht="18.75" customHeight="1"/>
-    <row r="152" ht="18.75" customHeight="1"/>
-    <row r="153" ht="18.75" customHeight="1"/>
-    <row r="154" ht="18.75" customHeight="1"/>
-    <row r="155" ht="18.75" customHeight="1"/>
-    <row r="156" ht="18.75" customHeight="1"/>
-    <row r="157" ht="18.75" customHeight="1"/>
-    <row r="158" ht="18.75" customHeight="1"/>
-    <row r="159" ht="18.75" customHeight="1"/>
-    <row r="160" ht="18.75" customHeight="1"/>
-    <row r="161" ht="18.75" customHeight="1"/>
-    <row r="162" ht="18.75" customHeight="1"/>
-    <row r="163" ht="18.75" customHeight="1"/>
-    <row r="164" ht="18.75" customHeight="1"/>
-    <row r="165" ht="18.75" customHeight="1"/>
-    <row r="166" ht="18.75" customHeight="1"/>
-    <row r="167" ht="18.75" customHeight="1"/>
-    <row r="168" ht="18.75" customHeight="1"/>
-    <row r="169" ht="18.75" customHeight="1"/>
-    <row r="170" ht="18.75" customHeight="1"/>
-    <row r="171" ht="18.75" customHeight="1"/>
-    <row r="172" ht="18.75" customHeight="1"/>
-    <row r="173" ht="18.75" customHeight="1"/>
-    <row r="174" ht="18.75" customHeight="1"/>
-    <row r="175" ht="18.75" customHeight="1"/>
-    <row r="176" ht="18.75" customHeight="1"/>
-    <row r="177" ht="18.75" customHeight="1"/>
-    <row r="178" ht="18.75" customHeight="1"/>
-    <row r="179" ht="18.75" customHeight="1"/>
-    <row r="180" ht="18.75" customHeight="1"/>
-    <row r="181" ht="18.75" customHeight="1"/>
-    <row r="182" ht="18.75" customHeight="1"/>
-    <row r="183" ht="18.75" customHeight="1"/>
-    <row r="184" ht="18.75" customHeight="1"/>
-    <row r="185" ht="18.75" customHeight="1"/>
-    <row r="186" ht="18.75" customHeight="1"/>
-    <row r="187" ht="18.75" customHeight="1"/>
-    <row r="188" ht="18.75" customHeight="1"/>
-    <row r="189" ht="18.75" customHeight="1"/>
-    <row r="190" ht="18.75" customHeight="1"/>
-    <row r="191" ht="18.75" customHeight="1"/>
-    <row r="192" ht="18.75" customHeight="1"/>
-    <row r="193" ht="18.75" customHeight="1"/>
-    <row r="194" ht="18.75" customHeight="1"/>
-    <row r="195" ht="18.75" customHeight="1"/>
-    <row r="196" ht="18.75" customHeight="1"/>
-    <row r="197" ht="18.75" customHeight="1"/>
-    <row r="198" ht="18.75" customHeight="1"/>
-    <row r="199" ht="18.75" customHeight="1"/>
-    <row r="200" ht="18.75" customHeight="1"/>
-    <row r="201" ht="18.75" customHeight="1"/>
-    <row r="202" ht="18.75" customHeight="1"/>
-    <row r="203" ht="18.75" customHeight="1"/>
-    <row r="204" ht="18.75" customHeight="1"/>
-    <row r="205" ht="18.75" customHeight="1"/>
-    <row r="206" ht="18.75" customHeight="1"/>
-    <row r="207" ht="18.75" customHeight="1"/>
-    <row r="208" ht="18.75" customHeight="1"/>
-    <row r="209" ht="18.75" customHeight="1"/>
-    <row r="210" ht="18.75" customHeight="1"/>
-    <row r="211" ht="18.75" customHeight="1"/>
-    <row r="212" ht="18.75" customHeight="1"/>
-    <row r="213" ht="18.75" customHeight="1"/>
-    <row r="214" ht="18.75" customHeight="1"/>
-    <row r="215" ht="18.75" customHeight="1"/>
-    <row r="216" ht="18.75" customHeight="1"/>
-    <row r="217" ht="18.75" customHeight="1"/>
-    <row r="218" ht="18.75" customHeight="1"/>
-    <row r="219" ht="18.75" customHeight="1"/>
-    <row r="220" ht="18.75" customHeight="1"/>
-    <row r="221" ht="18.75" customHeight="1"/>
-    <row r="222" ht="18.75" customHeight="1"/>
-    <row r="223" ht="18.75" customHeight="1"/>
-    <row r="224" ht="18.75" customHeight="1"/>
-    <row r="225" ht="18.75" customHeight="1"/>
-    <row r="226" ht="18.75" customHeight="1"/>
-    <row r="227" ht="18.75" customHeight="1"/>
-    <row r="228" ht="18.75" customHeight="1"/>
-    <row r="229" ht="18.75" customHeight="1"/>
-    <row r="230" ht="18.75" customHeight="1"/>
-    <row r="231" ht="18.75" customHeight="1"/>
-    <row r="232" ht="18.75" customHeight="1"/>
-    <row r="233" ht="18.75" customHeight="1"/>
-    <row r="234" ht="18.75" customHeight="1"/>
-    <row r="235" ht="18.75" customHeight="1"/>
-    <row r="236" ht="18.75" customHeight="1"/>
-    <row r="237" ht="18.75" customHeight="1"/>
-    <row r="238" ht="18.75" customHeight="1"/>
-    <row r="239" ht="18.75" customHeight="1"/>
-    <row r="240" ht="18.75" customHeight="1"/>
-    <row r="241" ht="18.75" customHeight="1"/>
-    <row r="242" ht="18.75" customHeight="1"/>
-    <row r="243" ht="18.75" customHeight="1"/>
-    <row r="244" ht="18.75" customHeight="1"/>
-    <row r="245" ht="18.75" customHeight="1"/>
-    <row r="246" ht="18.75" customHeight="1"/>
-    <row r="247" ht="18.75" customHeight="1"/>
-    <row r="248" ht="18.75" customHeight="1"/>
-    <row r="249" ht="18.75" customHeight="1"/>
-    <row r="250" ht="18.75" customHeight="1"/>
-    <row r="251" ht="18.75" customHeight="1"/>
-    <row r="252" ht="18.75" customHeight="1"/>
-    <row r="253" ht="18.75" customHeight="1"/>
-    <row r="254" ht="18.75" customHeight="1"/>
-    <row r="255" ht="18.75" customHeight="1"/>
-    <row r="256" ht="18.75" customHeight="1"/>
-    <row r="257" ht="18.75" customHeight="1"/>
-    <row r="258" ht="18.75" customHeight="1"/>
-    <row r="259" ht="18.75" customHeight="1"/>
-    <row r="260" ht="18.75" customHeight="1"/>
-    <row r="261" ht="18.75" customHeight="1"/>
-    <row r="262" ht="18.75" customHeight="1"/>
-    <row r="263" ht="18.75" customHeight="1"/>
-    <row r="264" ht="18.75" customHeight="1"/>
-    <row r="265" ht="18.75" customHeight="1"/>
-    <row r="266" ht="18.75" customHeight="1"/>
-    <row r="267" ht="18.75" customHeight="1"/>
-    <row r="268" ht="18.75" customHeight="1"/>
-    <row r="269" ht="18.75" customHeight="1"/>
-    <row r="270" ht="18.75" customHeight="1"/>
-    <row r="271" ht="18.75" customHeight="1"/>
-    <row r="272" ht="18.75" customHeight="1"/>
-    <row r="273" ht="18.75" customHeight="1"/>
-    <row r="274" ht="18.75" customHeight="1"/>
-    <row r="275" ht="18.75" customHeight="1"/>
-    <row r="276" ht="18.75" customHeight="1"/>
-    <row r="277" ht="18.75" customHeight="1"/>
-    <row r="278" ht="18.75" customHeight="1"/>
-    <row r="279" ht="18.75" customHeight="1"/>
-    <row r="280" ht="18.75" customHeight="1"/>
-    <row r="281" ht="18.75" customHeight="1"/>
-    <row r="282" ht="18.75" customHeight="1"/>
-    <row r="283" ht="18.75" customHeight="1"/>
-    <row r="284" ht="18.75" customHeight="1"/>
-    <row r="285" ht="18.75" customHeight="1"/>
-    <row r="286" ht="18.75" customHeight="1"/>
-    <row r="287" ht="18.75" customHeight="1"/>
-    <row r="288" ht="18.75" customHeight="1"/>
-    <row r="289" ht="18.75" customHeight="1"/>
-    <row r="290" ht="18.75" customHeight="1"/>
-    <row r="291" ht="18.75" customHeight="1"/>
-    <row r="292" ht="18.75" customHeight="1"/>
-    <row r="293" ht="18.75" customHeight="1"/>
-    <row r="294" ht="18.75" customHeight="1"/>
-    <row r="295" ht="18.75" customHeight="1"/>
-    <row r="296" ht="18.75" customHeight="1"/>
-    <row r="297" ht="18.75" customHeight="1"/>
-    <row r="298" ht="18.75" customHeight="1"/>
-    <row r="299" ht="18.75" customHeight="1"/>
-    <row r="300" ht="18.75" customHeight="1"/>
-    <row r="301" ht="18.75" customHeight="1"/>
-    <row r="302" ht="18.75" customHeight="1"/>
-    <row r="303" ht="18.75" customHeight="1"/>
-    <row r="304" ht="18.75" customHeight="1"/>
-    <row r="305" ht="18.75" customHeight="1"/>
-    <row r="306" ht="18.75" customHeight="1"/>
-    <row r="307" ht="18.75" customHeight="1"/>
-    <row r="308" ht="18.75" customHeight="1"/>
-    <row r="309" ht="18.75" customHeight="1"/>
-    <row r="310" ht="18.75" customHeight="1"/>
-    <row r="311" ht="18.75" customHeight="1"/>
-    <row r="312" ht="18.75" customHeight="1"/>
-    <row r="313" ht="18.75" customHeight="1"/>
-    <row r="314" ht="18.75" customHeight="1"/>
-    <row r="315" ht="18.75" customHeight="1"/>
-    <row r="316" ht="18.75" customHeight="1"/>
-    <row r="317" ht="18.75" customHeight="1"/>
-    <row r="318" ht="18.75" customHeight="1"/>
-    <row r="319" ht="18.75" customHeight="1"/>
-    <row r="320" ht="18.75" customHeight="1"/>
-    <row r="321" ht="18.75" customHeight="1"/>
-    <row r="322" ht="18.75" customHeight="1"/>
-    <row r="323" ht="18.75" customHeight="1"/>
-    <row r="324" ht="18.75" customHeight="1"/>
-    <row r="325" ht="18.75" customHeight="1"/>
-    <row r="326" ht="18.75" customHeight="1"/>
-    <row r="327" ht="18.75" customHeight="1"/>
-    <row r="328" ht="18.75" customHeight="1"/>
-    <row r="329" ht="18.75" customHeight="1"/>
-    <row r="330" ht="18.75" customHeight="1"/>
-    <row r="331" ht="18.75" customHeight="1"/>
-    <row r="332" ht="18.75" customHeight="1"/>
-    <row r="333" ht="18.75" customHeight="1"/>
-    <row r="334" ht="18.75" customHeight="1"/>
-    <row r="335" ht="18.75" customHeight="1"/>
-    <row r="336" ht="18.75" customHeight="1"/>
-    <row r="337" ht="18.75" customHeight="1"/>
-    <row r="338" ht="18.75" customHeight="1"/>
-    <row r="339" ht="18.75" customHeight="1"/>
-    <row r="340" ht="18.75" customHeight="1"/>
-    <row r="341" ht="18.75" customHeight="1"/>
-    <row r="342" ht="18.75" customHeight="1"/>
-    <row r="343" ht="18.75" customHeight="1"/>
-    <row r="344" ht="18.75" customHeight="1"/>
-    <row r="345" ht="18.75" customHeight="1"/>
-    <row r="346" ht="18.75" customHeight="1"/>
-    <row r="347" ht="18.75" customHeight="1"/>
-    <row r="348" ht="18.75" customHeight="1"/>
-    <row r="349" ht="18.75" customHeight="1"/>
-    <row r="350" ht="18.75" customHeight="1"/>
-    <row r="351" ht="18.75" customHeight="1"/>
-    <row r="352" ht="18.75" customHeight="1"/>
-    <row r="353" ht="18.75" customHeight="1"/>
-    <row r="354" ht="18.75" customHeight="1"/>
-    <row r="355" ht="18.75" customHeight="1"/>
-    <row r="356" ht="18.75" customHeight="1"/>
-    <row r="357" ht="18.75" customHeight="1"/>
-    <row r="358" ht="18.75" customHeight="1"/>
-    <row r="359" ht="18.75" customHeight="1"/>
-    <row r="360" ht="18.75" customHeight="1"/>
-    <row r="361" ht="18.75" customHeight="1"/>
-    <row r="362" ht="18.75" customHeight="1"/>
-    <row r="363" ht="18.75" customHeight="1"/>
-    <row r="364" ht="18.75" customHeight="1"/>
-    <row r="365" ht="18.75" customHeight="1"/>
-    <row r="366" ht="18.75" customHeight="1"/>
-    <row r="367" ht="18.75" customHeight="1"/>
-    <row r="368" ht="18.75" customHeight="1"/>
-    <row r="369" ht="18.75" customHeight="1"/>
-    <row r="370" ht="18.75" customHeight="1"/>
-    <row r="371" ht="18.75" customHeight="1"/>
-    <row r="372" ht="18.75" customHeight="1"/>
-    <row r="373" ht="18.75" customHeight="1"/>
-    <row r="374" ht="18.75" customHeight="1"/>
-    <row r="375" ht="18.75" customHeight="1"/>
-    <row r="376" ht="18.75" customHeight="1"/>
-    <row r="377" ht="18.75" customHeight="1"/>
-    <row r="378" ht="18.75" customHeight="1"/>
-    <row r="379" ht="18.75" customHeight="1"/>
-    <row r="380" ht="18.75" customHeight="1"/>
-    <row r="381" ht="18.75" customHeight="1"/>
-    <row r="382" ht="18.75" customHeight="1"/>
-    <row r="383" ht="18.75" customHeight="1"/>
-    <row r="384" ht="18.75" customHeight="1"/>
-    <row r="385" ht="18.75" customHeight="1"/>
-    <row r="386" ht="18.75" customHeight="1"/>
-    <row r="387" ht="18.75" customHeight="1"/>
-    <row r="388" ht="18.75" customHeight="1"/>
-    <row r="389" ht="18.75" customHeight="1"/>
-    <row r="390" ht="18.75" customHeight="1"/>
-    <row r="391" ht="18.75" customHeight="1"/>
-    <row r="392" ht="18.75" customHeight="1"/>
-    <row r="393" ht="18.75" customHeight="1"/>
-    <row r="394" ht="18.75" customHeight="1"/>
-    <row r="395" ht="18.75" customHeight="1"/>
-    <row r="396" ht="18.75" customHeight="1"/>
-    <row r="397" ht="18.75" customHeight="1"/>
-    <row r="398" ht="18.75" customHeight="1"/>
-    <row r="399" ht="18.75" customHeight="1"/>
-    <row r="400" ht="18.75" customHeight="1"/>
-    <row r="401" ht="18.75" customHeight="1"/>
-    <row r="402" ht="18.75" customHeight="1"/>
-    <row r="403" ht="18.75" customHeight="1"/>
-    <row r="404" ht="18.75" customHeight="1"/>
-    <row r="405" ht="18.75" customHeight="1"/>
-    <row r="406" ht="18.75" customHeight="1"/>
-    <row r="407" ht="18.75" customHeight="1"/>
-    <row r="408" ht="18.75" customHeight="1"/>
-    <row r="409" ht="18.75" customHeight="1"/>
-    <row r="410" ht="18.75" customHeight="1"/>
-    <row r="411" ht="18.75" customHeight="1"/>
-    <row r="412" ht="18.75" customHeight="1"/>
-    <row r="413" ht="18.75" customHeight="1"/>
-    <row r="414" ht="18.75" customHeight="1"/>
-    <row r="415" ht="18.75" customHeight="1"/>
-    <row r="416" ht="18.75" customHeight="1"/>
-    <row r="417" ht="18.75" customHeight="1"/>
-    <row r="418" ht="18.75" customHeight="1"/>
-    <row r="419" ht="18.75" customHeight="1"/>
-    <row r="420" ht="18.75" customHeight="1"/>
-    <row r="421" ht="18.75" customHeight="1"/>
-    <row r="422" ht="18.75" customHeight="1"/>
-    <row r="423" ht="18.75" customHeight="1"/>
-    <row r="424" ht="18.75" customHeight="1"/>
-    <row r="425" ht="18.75" customHeight="1"/>
-    <row r="426" ht="18.75" customHeight="1"/>
-    <row r="427" ht="18.75" customHeight="1"/>
-    <row r="428" ht="18.75" customHeight="1"/>
-    <row r="429" ht="18.75" customHeight="1"/>
-    <row r="430" ht="18.75" customHeight="1"/>
-    <row r="431" ht="18.75" customHeight="1"/>
-    <row r="432" ht="18.75" customHeight="1"/>
-    <row r="433" ht="18.75" customHeight="1"/>
-    <row r="434" ht="18.75" customHeight="1"/>
-    <row r="435" ht="18.75" customHeight="1"/>
-    <row r="436" ht="18.75" customHeight="1"/>
-    <row r="437" ht="18.75" customHeight="1"/>
-    <row r="438" ht="18.75" customHeight="1"/>
-    <row r="439" ht="18.75" customHeight="1"/>
-    <row r="440" ht="18.75" customHeight="1"/>
-    <row r="441" ht="18.75" customHeight="1"/>
-    <row r="442" ht="18.75" customHeight="1"/>
-    <row r="443" ht="18.75" customHeight="1"/>
-    <row r="444" ht="18.75" customHeight="1"/>
-    <row r="445" ht="18.75" customHeight="1"/>
-    <row r="446" ht="18.75" customHeight="1"/>
-    <row r="447" ht="18.75" customHeight="1"/>
-    <row r="448" ht="18.75" customHeight="1"/>
-    <row r="449" ht="18.75" customHeight="1"/>
-    <row r="450" ht="18.75" customHeight="1"/>
-    <row r="451" ht="18.75" customHeight="1"/>
-    <row r="452" ht="18.75" customHeight="1"/>
-    <row r="453" ht="18.75" customHeight="1"/>
-    <row r="454" ht="18.75" customHeight="1"/>
-    <row r="455" ht="18.75" customHeight="1"/>
-    <row r="456" ht="18.75" customHeight="1"/>
-    <row r="457" ht="18.75" customHeight="1"/>
-    <row r="458" ht="18.75" customHeight="1"/>
-    <row r="459" ht="18.75" customHeight="1"/>
-    <row r="460" ht="18.75" customHeight="1"/>
-    <row r="461" ht="18.75" customHeight="1"/>
-    <row r="462" ht="18.75" customHeight="1"/>
-    <row r="463" ht="18.75" customHeight="1"/>
-    <row r="464" ht="18.75" customHeight="1"/>
-    <row r="465" ht="18.75" customHeight="1"/>
-    <row r="466" ht="18.75" customHeight="1"/>
-    <row r="467" ht="18.75" customHeight="1"/>
-    <row r="468" ht="18.75" customHeight="1"/>
-    <row r="469" ht="18.75" customHeight="1"/>
-    <row r="470" ht="18.75" customHeight="1"/>
-    <row r="471" ht="18.75" customHeight="1"/>
-    <row r="472" ht="18.75" customHeight="1"/>
-    <row r="473" ht="18.75" customHeight="1"/>
-    <row r="474" ht="18.75" customHeight="1"/>
-    <row r="475" ht="18.75" customHeight="1"/>
-    <row r="476" ht="18.75" customHeight="1"/>
-    <row r="477" ht="18.75" customHeight="1"/>
-    <row r="478" ht="18.75" customHeight="1"/>
-    <row r="479" ht="18.75" customHeight="1"/>
-    <row r="480" ht="18.75" customHeight="1"/>
-    <row r="481" ht="18.75" customHeight="1"/>
-    <row r="482" ht="18.75" customHeight="1"/>
-    <row r="483" ht="18.75" customHeight="1"/>
-    <row r="484" ht="18.75" customHeight="1"/>
-    <row r="485" ht="18.75" customHeight="1"/>
-    <row r="486" ht="18.75" customHeight="1"/>
-    <row r="487" ht="18.75" customHeight="1"/>
-    <row r="488" ht="18.75" customHeight="1"/>
-    <row r="489" ht="18.75" customHeight="1"/>
-    <row r="490" ht="18.75" customHeight="1"/>
-    <row r="491" ht="18.75" customHeight="1"/>
-    <row r="492" ht="18.75" customHeight="1"/>
-    <row r="493" ht="18.75" customHeight="1"/>
-    <row r="494" ht="18.75" customHeight="1"/>
-    <row r="495" ht="18.75" customHeight="1"/>
-    <row r="496" ht="18.75" customHeight="1"/>
-    <row r="497" ht="18.75" customHeight="1"/>
-    <row r="498" ht="18.75" customHeight="1"/>
-    <row r="499" ht="18.75" customHeight="1"/>
-    <row r="500" ht="18.75" customHeight="1"/>
-    <row r="501" ht="18.75" customHeight="1"/>
-    <row r="502" ht="18.75" customHeight="1"/>
-    <row r="503" ht="18.75" customHeight="1"/>
-    <row r="504" ht="18.75" customHeight="1"/>
-    <row r="505" ht="18.75" customHeight="1"/>
-    <row r="506" ht="18.75" customHeight="1"/>
-    <row r="507" ht="18.75" customHeight="1"/>
-    <row r="508" ht="18.75" customHeight="1"/>
-    <row r="509" ht="18.75" customHeight="1"/>
-    <row r="510" ht="18.75" customHeight="1"/>
-    <row r="511" ht="18.75" customHeight="1"/>
-    <row r="512" ht="18.75" customHeight="1"/>
-    <row r="513" ht="18.75" customHeight="1"/>
-    <row r="514" ht="18.75" customHeight="1"/>
-    <row r="515" ht="18.75" customHeight="1"/>
-    <row r="516" ht="18.75" customHeight="1"/>
-    <row r="517" ht="18.75" customHeight="1"/>
-    <row r="518" ht="18.75" customHeight="1"/>
-    <row r="519" ht="18.75" customHeight="1"/>
-    <row r="520" ht="18.75" customHeight="1"/>
-    <row r="521" ht="18.75" customHeight="1"/>
-    <row r="522" ht="18.75" customHeight="1"/>
-    <row r="523" ht="18.75" customHeight="1"/>
-    <row r="524" ht="18.75" customHeight="1"/>
-    <row r="525" ht="18.75" customHeight="1"/>
-    <row r="526" ht="18.75" customHeight="1"/>
-    <row r="527" ht="18.75" customHeight="1"/>
-    <row r="528" ht="18.75" customHeight="1"/>
-    <row r="529" ht="18.75" customHeight="1"/>
-    <row r="530" ht="18.75" customHeight="1"/>
-    <row r="531" ht="18.75" customHeight="1"/>
-    <row r="532" ht="18.75" customHeight="1"/>
-    <row r="533" ht="18.75" customHeight="1"/>
-    <row r="534" ht="18.75" customHeight="1"/>
-    <row r="535" ht="18.75" customHeight="1"/>
-    <row r="536" ht="18.75" customHeight="1"/>
-    <row r="537" ht="18.75" customHeight="1"/>
-    <row r="538" ht="18.75" customHeight="1"/>
-    <row r="539" ht="18.75" customHeight="1"/>
-    <row r="540" ht="18.75" customHeight="1"/>
-    <row r="541" ht="18.75" customHeight="1"/>
-    <row r="542" ht="18.75" customHeight="1"/>
-    <row r="543" ht="18.75" customHeight="1"/>
-    <row r="544" ht="18.75" customHeight="1"/>
-    <row r="545" ht="18.75" customHeight="1"/>
-    <row r="546" ht="18.75" customHeight="1"/>
-    <row r="547" ht="18.75" customHeight="1"/>
-    <row r="548" ht="18.75" customHeight="1"/>
-    <row r="549" ht="18.75" customHeight="1"/>
-    <row r="550" ht="18.75" customHeight="1"/>
-    <row r="551" ht="18.75" customHeight="1"/>
-    <row r="552" ht="18.75" customHeight="1"/>
-    <row r="553" ht="18.75" customHeight="1"/>
-    <row r="554" ht="18.75" customHeight="1"/>
-    <row r="555" ht="18.75" customHeight="1"/>
-    <row r="556" ht="18.75" customHeight="1"/>
-    <row r="557" ht="18.75" customHeight="1"/>
-    <row r="558" ht="18.75" customHeight="1"/>
-    <row r="559" ht="18.75" customHeight="1"/>
-    <row r="560" ht="18.75" customHeight="1"/>
-    <row r="561" ht="18.75" customHeight="1"/>
-    <row r="562" ht="18.75" customHeight="1"/>
-    <row r="563" ht="18.75" customHeight="1"/>
-    <row r="564" ht="18.75" customHeight="1"/>
-    <row r="565" ht="18.75" customHeight="1"/>
-    <row r="566" ht="18.75" customHeight="1"/>
-    <row r="567" ht="18.75" customHeight="1"/>
-    <row r="568" ht="18.75" customHeight="1"/>
-    <row r="569" ht="18.75" customHeight="1"/>
-    <row r="570" ht="18.75" customHeight="1"/>
-    <row r="571" ht="18.75" customHeight="1"/>
-    <row r="572" ht="18.75" customHeight="1"/>
-    <row r="573" ht="18.75" customHeight="1"/>
-    <row r="574" ht="18.75" customHeight="1"/>
-    <row r="575" ht="18.75" customHeight="1"/>
-    <row r="576" ht="18.75" customHeight="1"/>
-    <row r="577" ht="18.75" customHeight="1"/>
-    <row r="578" ht="18.75" customHeight="1"/>
-    <row r="579" ht="18.75" customHeight="1"/>
-    <row r="580" ht="18.75" customHeight="1"/>
-    <row r="581" ht="18.75" customHeight="1"/>
-    <row r="582" ht="18.75" customHeight="1"/>
-    <row r="583" ht="18.75" customHeight="1"/>
-    <row r="584" ht="18.75" customHeight="1"/>
-    <row r="585" ht="18.75" customHeight="1"/>
-    <row r="586" ht="18.75" customHeight="1"/>
-    <row r="587" ht="18.75" customHeight="1"/>
-    <row r="588" ht="18.75" customHeight="1"/>
-    <row r="589" ht="18.75" customHeight="1"/>
-    <row r="590" ht="18.75" customHeight="1"/>
-    <row r="591" ht="18.75" customHeight="1"/>
-    <row r="592" ht="18.75" customHeight="1"/>
-    <row r="593" ht="18.75" customHeight="1"/>
-    <row r="594" ht="18.75" customHeight="1"/>
-    <row r="595" ht="18.75" customHeight="1"/>
-    <row r="596" ht="18.75" customHeight="1"/>
-    <row r="597" ht="18.75" customHeight="1"/>
-    <row r="598" ht="18.75" customHeight="1"/>
-    <row r="599" ht="18.75" customHeight="1"/>
-    <row r="600" ht="18.75" customHeight="1"/>
-    <row r="601" ht="18.75" customHeight="1"/>
-    <row r="602" ht="18.75" customHeight="1"/>
-    <row r="603" ht="18.75" customHeight="1"/>
-    <row r="604" ht="18.75" customHeight="1"/>
-    <row r="605" ht="18.75" customHeight="1"/>
-    <row r="606" ht="18.75" customHeight="1"/>
-    <row r="607" ht="18.75" customHeight="1"/>
-    <row r="608" ht="18.75" customHeight="1"/>
-    <row r="609" ht="18.75" customHeight="1"/>
-    <row r="610" ht="18.75" customHeight="1"/>
-    <row r="611" ht="18.75" customHeight="1"/>
-    <row r="612" ht="18.75" customHeight="1"/>
-    <row r="613" ht="18.75" customHeight="1"/>
-    <row r="614" ht="18.75" customHeight="1"/>
-    <row r="615" ht="18.75" customHeight="1"/>
-    <row r="616" ht="18.75" customHeight="1"/>
-    <row r="617" ht="18.75" customHeight="1"/>
-    <row r="618" ht="18.75" customHeight="1"/>
-    <row r="619" ht="18.75" customHeight="1"/>
-    <row r="620" ht="18.75" customHeight="1"/>
-    <row r="621" ht="18.75" customHeight="1"/>
-    <row r="622" ht="18.75" customHeight="1"/>
-    <row r="623" ht="18.75" customHeight="1"/>
-    <row r="624" ht="18.75" customHeight="1"/>
-    <row r="625" ht="18.75" customHeight="1"/>
-    <row r="626" ht="18.75" customHeight="1"/>
-    <row r="627" ht="18.75" customHeight="1"/>
-    <row r="628" ht="18.75" customHeight="1"/>
-    <row r="629" ht="18.75" customHeight="1"/>
-    <row r="630" ht="18.75" customHeight="1"/>
-    <row r="631" ht="18.75" customHeight="1"/>
-    <row r="632" ht="18.75" customHeight="1"/>
-    <row r="633" ht="18.75" customHeight="1"/>
-    <row r="634" ht="18.75" customHeight="1"/>
-    <row r="635" ht="18.75" customHeight="1"/>
-    <row r="636" ht="18.75" customHeight="1"/>
-    <row r="637" ht="18.75" customHeight="1"/>
-    <row r="638" ht="18.75" customHeight="1"/>
-    <row r="639" ht="18.75" customHeight="1"/>
-    <row r="640" ht="18.75" customHeight="1"/>
-    <row r="641" ht="18.75" customHeight="1"/>
-    <row r="642" ht="18.75" customHeight="1"/>
-    <row r="643" ht="18.75" customHeight="1"/>
-    <row r="644" ht="18.75" customHeight="1"/>
-    <row r="645" ht="18.75" customHeight="1"/>
-    <row r="646" ht="18.75" customHeight="1"/>
-    <row r="647" ht="18.75" customHeight="1"/>
-    <row r="648" ht="18.75" customHeight="1"/>
-    <row r="649" ht="18.75" customHeight="1"/>
-    <row r="650" ht="18.75" customHeight="1"/>
-    <row r="651" ht="18.75" customHeight="1"/>
-    <row r="652" ht="18.75" customHeight="1"/>
-    <row r="653" ht="18.75" customHeight="1"/>
-    <row r="654" ht="18.75" customHeight="1"/>
-    <row r="655" ht="18.75" customHeight="1"/>
-    <row r="656" ht="18.75" customHeight="1"/>
-    <row r="657" ht="18.75" customHeight="1"/>
-    <row r="658" ht="18.75" customHeight="1"/>
-    <row r="659" ht="18.75" customHeight="1"/>
-    <row r="660" ht="18.75" customHeight="1"/>
-    <row r="661" ht="18.75" customHeight="1"/>
-    <row r="662" ht="18.75" customHeight="1"/>
-    <row r="663" ht="18.75" customHeight="1"/>
-    <row r="664" ht="18.75" customHeight="1"/>
-    <row r="665" ht="18.75" customHeight="1"/>
-    <row r="666" ht="18.75" customHeight="1"/>
-    <row r="667" ht="18.75" customHeight="1"/>
-    <row r="668" ht="18.75" customHeight="1"/>
-    <row r="669" ht="18.75" customHeight="1"/>
-    <row r="670" ht="18.75" customHeight="1"/>
-    <row r="671" ht="18.75" customHeight="1"/>
-    <row r="672" ht="18.75" customHeight="1"/>
-    <row r="673" ht="18.75" customHeight="1"/>
-    <row r="674" ht="18.75" customHeight="1"/>
-    <row r="675" ht="18.75" customHeight="1"/>
-    <row r="676" ht="18.75" customHeight="1"/>
-    <row r="677" ht="18.75" customHeight="1"/>
-    <row r="678" ht="18.75" customHeight="1"/>
-    <row r="679" ht="18.75" customHeight="1"/>
-    <row r="680" ht="18.75" customHeight="1"/>
-    <row r="681" ht="18.75" customHeight="1"/>
-    <row r="682" ht="18.75" customHeight="1"/>
-    <row r="683" ht="18.75" customHeight="1"/>
-    <row r="684" ht="18.75" customHeight="1"/>
-    <row r="685" ht="18.75" customHeight="1"/>
-    <row r="686" ht="18.75" customHeight="1"/>
-    <row r="687" ht="18.75" customHeight="1"/>
-    <row r="688" ht="18.75" customHeight="1"/>
-    <row r="689" ht="18.75" customHeight="1"/>
-    <row r="690" ht="18.75" customHeight="1"/>
-    <row r="691" ht="18.75" customHeight="1"/>
-    <row r="692" ht="18.75" customHeight="1"/>
-    <row r="693" ht="18.75" customHeight="1"/>
-    <row r="694" ht="18.75" customHeight="1"/>
-    <row r="695" ht="18.75" customHeight="1"/>
-    <row r="696" ht="18.75" customHeight="1"/>
-    <row r="697" ht="18.75" customHeight="1"/>
-    <row r="698" ht="18.75" customHeight="1"/>
-    <row r="699" ht="18.75" customHeight="1"/>
-    <row r="700" ht="18.75" customHeight="1"/>
-    <row r="701" ht="18.75" customHeight="1"/>
-    <row r="702" ht="18.75" customHeight="1"/>
-    <row r="703" ht="18.75" customHeight="1"/>
-    <row r="704" ht="18.75" customHeight="1"/>
-    <row r="705" ht="18.75" customHeight="1"/>
-    <row r="706" ht="18.75" customHeight="1"/>
-    <row r="707" ht="18.75" customHeight="1"/>
-    <row r="708" ht="18.75" customHeight="1"/>
-    <row r="709" ht="18.75" customHeight="1"/>
-    <row r="710" ht="18.75" customHeight="1"/>
-    <row r="711" ht="18.75" customHeight="1"/>
-    <row r="712" ht="18.75" customHeight="1"/>
-    <row r="713" ht="18.75" customHeight="1"/>
-    <row r="714" ht="18.75" customHeight="1"/>
-    <row r="715" ht="18.75" customHeight="1"/>
-    <row r="716" ht="18.75" customHeight="1"/>
-    <row r="717" ht="18.75" customHeight="1"/>
-    <row r="718" ht="18.75" customHeight="1"/>
-    <row r="719" ht="18.75" customHeight="1"/>
-    <row r="720" ht="18.75" customHeight="1"/>
-    <row r="721" ht="18.75" customHeight="1"/>
-    <row r="722" ht="18.75" customHeight="1"/>
-    <row r="723" ht="18.75" customHeight="1"/>
-    <row r="724" ht="18.75" customHeight="1"/>
-    <row r="725" ht="18.75" customHeight="1"/>
-    <row r="726" ht="18.75" customHeight="1"/>
-    <row r="727" ht="18.75" customHeight="1"/>
-    <row r="728" ht="18.75" customHeight="1"/>
-    <row r="729" ht="18.75" customHeight="1"/>
-    <row r="730" ht="18.75" customHeight="1"/>
-    <row r="731" ht="18.75" customHeight="1"/>
-    <row r="732" ht="18.75" customHeight="1"/>
-    <row r="733" ht="18.75" customHeight="1"/>
-    <row r="734" ht="18.75" customHeight="1"/>
-    <row r="735" ht="18.75" customHeight="1"/>
-    <row r="736" ht="18.75" customHeight="1"/>
-    <row r="737" ht="18.75" customHeight="1"/>
-    <row r="738" ht="18.75" customHeight="1"/>
-    <row r="739" ht="18.75" customHeight="1"/>
-    <row r="740" ht="18.75" customHeight="1"/>
-    <row r="741" ht="18.75" customHeight="1"/>
-    <row r="742" ht="18.75" customHeight="1"/>
-    <row r="743" ht="18.75" customHeight="1"/>
-    <row r="744" ht="18.75" customHeight="1"/>
-    <row r="745" ht="18.75" customHeight="1"/>
-    <row r="746" ht="18.75" customHeight="1"/>
-    <row r="747" ht="18.75" customHeight="1"/>
-    <row r="748" ht="18.75" customHeight="1"/>
-    <row r="749" ht="18.75" customHeight="1"/>
-    <row r="750" ht="18.75" customHeight="1"/>
-    <row r="751" ht="18.75" customHeight="1"/>
-    <row r="752" ht="18.75" customHeight="1"/>
-    <row r="753" ht="18.75" customHeight="1"/>
-    <row r="754" ht="18.75" customHeight="1"/>
-    <row r="755" ht="18.75" customHeight="1"/>
-    <row r="756" ht="18.75" customHeight="1"/>
-    <row r="757" ht="18.75" customHeight="1"/>
-    <row r="758" ht="18.75" customHeight="1"/>
-    <row r="759" ht="18.75" customHeight="1"/>
-    <row r="760" ht="18.75" customHeight="1"/>
-    <row r="761" ht="18.75" customHeight="1"/>
-    <row r="762" ht="18.75" customHeight="1"/>
-    <row r="763" ht="18.75" customHeight="1"/>
-    <row r="764" ht="18.75" customHeight="1"/>
-    <row r="765" ht="18.75" customHeight="1"/>
-    <row r="766" ht="18.75" customHeight="1"/>
-    <row r="767" ht="18.75" customHeight="1"/>
-    <row r="768" ht="18.75" customHeight="1"/>
-    <row r="769" ht="18.75" customHeight="1"/>
-    <row r="770" ht="18.75" customHeight="1"/>
-    <row r="771" ht="18.75" customHeight="1"/>
-    <row r="772" ht="18.75" customHeight="1"/>
-    <row r="773" ht="18.75" customHeight="1"/>
-    <row r="774" ht="18.75" customHeight="1"/>
-    <row r="775" ht="18.75" customHeight="1"/>
-    <row r="776" ht="18.75" customHeight="1"/>
-    <row r="777" ht="18.75" customHeight="1"/>
-    <row r="778" ht="18.75" customHeight="1"/>
-    <row r="779" ht="18.75" customHeight="1"/>
-    <row r="780" ht="18.75" customHeight="1"/>
-    <row r="781" ht="18.75" customHeight="1"/>
-    <row r="782" ht="18.75" customHeight="1"/>
-    <row r="783" ht="18.75" customHeight="1"/>
-    <row r="784" ht="18.75" customHeight="1"/>
-    <row r="785" ht="18.75" customHeight="1"/>
-    <row r="786" ht="18.75" customHeight="1"/>
-    <row r="787" ht="18.75" customHeight="1"/>
-    <row r="788" ht="18.75" customHeight="1"/>
-    <row r="789" ht="18.75" customHeight="1"/>
-    <row r="790" ht="18.75" customHeight="1"/>
-    <row r="791" ht="18.75" customHeight="1"/>
-    <row r="792" ht="18.75" customHeight="1"/>
-    <row r="793" ht="18.75" customHeight="1"/>
-    <row r="794" ht="18.75" customHeight="1"/>
-    <row r="795" ht="18.75" customHeight="1"/>
-    <row r="796" ht="18.75" customHeight="1"/>
-    <row r="797" ht="18.75" customHeight="1"/>
-    <row r="798" ht="18.75" customHeight="1"/>
-    <row r="799" ht="18.75" customHeight="1"/>
-    <row r="800" ht="18.75" customHeight="1"/>
-    <row r="801" ht="18.75" customHeight="1"/>
-    <row r="802" ht="18.75" customHeight="1"/>
-    <row r="803" ht="18.75" customHeight="1"/>
-    <row r="804" ht="18.75" customHeight="1"/>
-    <row r="805" ht="18.75" customHeight="1"/>
-    <row r="806" ht="18.75" customHeight="1"/>
-    <row r="807" ht="18.75" customHeight="1"/>
-    <row r="808" ht="18.75" customHeight="1"/>
-    <row r="809" ht="18.75" customHeight="1"/>
-    <row r="810" ht="18.75" customHeight="1"/>
-    <row r="811" ht="18.75" customHeight="1"/>
-    <row r="812" ht="18.75" customHeight="1"/>
-    <row r="813" ht="18.75" customHeight="1"/>
-    <row r="814" ht="18.75" customHeight="1"/>
-    <row r="815" ht="18.75" customHeight="1"/>
-    <row r="816" ht="18.75" customHeight="1"/>
-    <row r="817" ht="18.75" customHeight="1"/>
-    <row r="818" ht="18.75" customHeight="1"/>
-    <row r="819" ht="18.75" customHeight="1"/>
-    <row r="820" ht="18.75" customHeight="1"/>
-    <row r="821" ht="18.75" customHeight="1"/>
-    <row r="822" ht="18.75" customHeight="1"/>
-    <row r="823" ht="18.75" customHeight="1"/>
-    <row r="824" ht="18.75" customHeight="1"/>
-    <row r="825" ht="18.75" customHeight="1"/>
-    <row r="826" ht="18.75" customHeight="1"/>
-    <row r="827" ht="18.75" customHeight="1"/>
-    <row r="828" ht="18.75" customHeight="1"/>
-    <row r="829" ht="18.75" customHeight="1"/>
-    <row r="830" ht="18.75" customHeight="1"/>
-    <row r="831" ht="18.75" customHeight="1"/>
-    <row r="832" ht="18.75" customHeight="1"/>
-    <row r="833" ht="18.75" customHeight="1"/>
-    <row r="834" ht="18.75" customHeight="1"/>
-    <row r="835" ht="18.75" customHeight="1"/>
-    <row r="836" ht="18.75" customHeight="1"/>
-    <row r="837" ht="18.75" customHeight="1"/>
-    <row r="838" ht="18.75" customHeight="1"/>
-    <row r="839" ht="18.75" customHeight="1"/>
-    <row r="840" ht="18.75" customHeight="1"/>
-    <row r="841" ht="18.75" customHeight="1"/>
-    <row r="842" ht="18.75" customHeight="1"/>
-    <row r="843" ht="18.75" customHeight="1"/>
-    <row r="844" ht="18.75" customHeight="1"/>
-    <row r="845" ht="18.75" customHeight="1"/>
-    <row r="846" ht="18.75" customHeight="1"/>
-    <row r="847" ht="18.75" customHeight="1"/>
-    <row r="848" ht="18.75" customHeight="1"/>
-    <row r="849" ht="18.75" customHeight="1"/>
-    <row r="850" ht="18.75" customHeight="1"/>
-    <row r="851" ht="18.75" customHeight="1"/>
-    <row r="852" ht="18.75" customHeight="1"/>
-    <row r="853" ht="18.75" customHeight="1"/>
-    <row r="854" ht="18.75" customHeight="1"/>
-    <row r="855" ht="18.75" customHeight="1"/>
-    <row r="856" ht="18.75" customHeight="1"/>
-    <row r="857" ht="18.75" customHeight="1"/>
-    <row r="858" ht="18.75" customHeight="1"/>
-    <row r="859" ht="18.75" customHeight="1"/>
-    <row r="860" ht="18.75" customHeight="1"/>
-    <row r="861" ht="18.75" customHeight="1"/>
-    <row r="862" ht="18.75" customHeight="1"/>
-    <row r="863" ht="18.75" customHeight="1"/>
-    <row r="864" ht="18.75" customHeight="1"/>
-    <row r="865" ht="18.75" customHeight="1"/>
-    <row r="866" ht="18.75" customHeight="1"/>
-    <row r="867" ht="18.75" customHeight="1"/>
-    <row r="868" ht="18.75" customHeight="1"/>
-    <row r="869" ht="18.75" customHeight="1"/>
-    <row r="870" ht="18.75" customHeight="1"/>
-    <row r="871" ht="18.75" customHeight="1"/>
-    <row r="872" ht="18.75" customHeight="1"/>
-    <row r="873" ht="18.75" customHeight="1"/>
-    <row r="874" ht="18.75" customHeight="1"/>
-    <row r="875" ht="18.75" customHeight="1"/>
-    <row r="876" ht="18.75" customHeight="1"/>
-    <row r="877" ht="18.75" customHeight="1"/>
-    <row r="878" ht="18.75" customHeight="1"/>
-    <row r="879" ht="18.75" customHeight="1"/>
-    <row r="880" ht="18.75" customHeight="1"/>
-    <row r="881" ht="18.75" customHeight="1"/>
-    <row r="882" ht="18.75" customHeight="1"/>
-    <row r="883" ht="18.75" customHeight="1"/>
-    <row r="884" ht="18.75" customHeight="1"/>
-    <row r="885" ht="18.75" customHeight="1"/>
-    <row r="886" ht="18.75" customHeight="1"/>
-    <row r="887" ht="18.75" customHeight="1"/>
-    <row r="888" ht="18.75" customHeight="1"/>
-    <row r="889" ht="18.75" customHeight="1"/>
-    <row r="890" ht="18.75" customHeight="1"/>
-    <row r="891" ht="18.75" customHeight="1"/>
-    <row r="892" ht="18.75" customHeight="1"/>
-    <row r="893" ht="18.75" customHeight="1"/>
-    <row r="894" ht="18.75" customHeight="1"/>
-    <row r="895" ht="18.75" customHeight="1"/>
-    <row r="896" ht="18.75" customHeight="1"/>
-    <row r="897" ht="18.75" customHeight="1"/>
-    <row r="898" ht="18.75" customHeight="1"/>
-    <row r="899" ht="18.75" customHeight="1"/>
-    <row r="900" ht="18.75" customHeight="1"/>
-    <row r="901" ht="18.75" customHeight="1"/>
-    <row r="902" ht="18.75" customHeight="1"/>
-    <row r="903" ht="18.75" customHeight="1"/>
-    <row r="904" ht="18.75" customHeight="1"/>
-    <row r="905" ht="18.75" customHeight="1"/>
-    <row r="906" ht="18.75" customHeight="1"/>
-    <row r="907" ht="18.75" customHeight="1"/>
-    <row r="908" ht="18.75" customHeight="1"/>
-    <row r="909" ht="18.75" customHeight="1"/>
-    <row r="910" ht="18.75" customHeight="1"/>
-    <row r="911" ht="18.75" customHeight="1"/>
-    <row r="912" ht="18.75" customHeight="1"/>
-    <row r="913" ht="18.75" customHeight="1"/>
-    <row r="914" ht="18.75" customHeight="1"/>
-    <row r="915" ht="18.75" customHeight="1"/>
-    <row r="916" ht="18.75" customHeight="1"/>
-    <row r="917" ht="18.75" customHeight="1"/>
-    <row r="918" ht="18.75" customHeight="1"/>
-    <row r="919" ht="18.75" customHeight="1"/>
-    <row r="920" ht="18.75" customHeight="1"/>
-    <row r="921" ht="18.75" customHeight="1"/>
-    <row r="922" ht="18.75" customHeight="1"/>
-    <row r="923" ht="18.75" customHeight="1"/>
-    <row r="924" ht="18.75" customHeight="1"/>
-    <row r="925" ht="18.75" customHeight="1"/>
-    <row r="926" ht="18.75" customHeight="1"/>
-    <row r="927" ht="18.75" customHeight="1"/>
-    <row r="928" ht="18.75" customHeight="1"/>
-    <row r="929" ht="18.75" customHeight="1"/>
-    <row r="930" ht="18.75" customHeight="1"/>
-    <row r="931" ht="18.75" customHeight="1"/>
-    <row r="932" ht="18.75" customHeight="1"/>
-    <row r="933" ht="18.75" customHeight="1"/>
-    <row r="934" ht="18.75" customHeight="1"/>
-    <row r="935" ht="18.75" customHeight="1"/>
-    <row r="936" ht="18.75" customHeight="1"/>
-    <row r="937" ht="18.75" customHeight="1"/>
-    <row r="938" ht="18.75" customHeight="1"/>
-    <row r="939" ht="18.75" customHeight="1"/>
-    <row r="940" ht="18.75" customHeight="1"/>
-    <row r="941" ht="18.75" customHeight="1"/>
-    <row r="942" ht="18.75" customHeight="1"/>
-    <row r="943" ht="18.75" customHeight="1"/>
-    <row r="944" ht="18.75" customHeight="1"/>
-    <row r="945" ht="18.75" customHeight="1"/>
-    <row r="946" ht="18.75" customHeight="1"/>
-    <row r="947" ht="18.75" customHeight="1"/>
-    <row r="948" ht="18.75" customHeight="1"/>
-    <row r="949" ht="18.75" customHeight="1"/>
-    <row r="950" ht="18.75" customHeight="1"/>
-    <row r="951" ht="18.75" customHeight="1"/>
-    <row r="952" ht="18.75" customHeight="1"/>
-    <row r="953" ht="18.75" customHeight="1"/>
-    <row r="954" ht="18.75" customHeight="1"/>
-    <row r="955" ht="18.75" customHeight="1"/>
-    <row r="956" ht="18.75" customHeight="1"/>
-    <row r="957" ht="18.75" customHeight="1"/>
-    <row r="958" ht="18.75" customHeight="1"/>
-    <row r="959" ht="18.75" customHeight="1"/>
-    <row r="960" ht="18.75" customHeight="1"/>
-    <row r="961" ht="18.75" customHeight="1"/>
-    <row r="962" ht="18.75" customHeight="1"/>
-    <row r="963" ht="18.75" customHeight="1"/>
-    <row r="964" ht="18.75" customHeight="1"/>
-    <row r="965" ht="18.75" customHeight="1"/>
-    <row r="966" ht="18.75" customHeight="1"/>
-    <row r="967" ht="18.75" customHeight="1"/>
-    <row r="968" ht="18.75" customHeight="1"/>
-    <row r="969" ht="18.75" customHeight="1"/>
-    <row r="970" ht="18.75" customHeight="1"/>
-    <row r="971" ht="18.75" customHeight="1"/>
-    <row r="972" ht="18.75" customHeight="1"/>
-    <row r="973" ht="18.75" customHeight="1"/>
-    <row r="974" ht="18.75" customHeight="1"/>
-    <row r="975" ht="18.75" customHeight="1"/>
-    <row r="976" ht="18.75" customHeight="1"/>
-    <row r="977" ht="18.75" customHeight="1"/>
-    <row r="978" ht="18.75" customHeight="1"/>
-    <row r="979" ht="18.75" customHeight="1"/>
-    <row r="980" ht="18.75" customHeight="1"/>
-    <row r="981" ht="18.75" customHeight="1"/>
-    <row r="982" ht="18.75" customHeight="1"/>
-    <row r="983" ht="18.75" customHeight="1"/>
-    <row r="984" ht="18.75" customHeight="1"/>
-    <row r="985" ht="18.75" customHeight="1"/>
-    <row r="986" ht="18.75" customHeight="1"/>
-    <row r="987" ht="18.75" customHeight="1"/>
-    <row r="988" ht="18.75" customHeight="1"/>
-    <row r="989" ht="18.75" customHeight="1"/>
-    <row r="990" ht="18.75" customHeight="1"/>
-    <row r="991" ht="18.75" customHeight="1"/>
-    <row r="992" ht="18.75" customHeight="1"/>
-    <row r="993" ht="18.75" customHeight="1"/>
-    <row r="994" ht="18.75" customHeight="1"/>
-    <row r="995" ht="18.75" customHeight="1"/>
-    <row r="996" ht="18.75" customHeight="1"/>
-    <row r="997" ht="18.75" customHeight="1"/>
-    <row r="998" ht="18.75" customHeight="1"/>
-    <row r="999" ht="18.75" customHeight="1"/>
-    <row r="1000" ht="18.75" customHeight="1"/>
+    <row r="4" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/システム構成図.xlsx
+++ b/システム構成図.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GWー221\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2919D033-3B35-4F0B-A6B6-B7E2D2984F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3BD772-027F-4574-A35C-97148A4CFA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1485" windowWidth="12675" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="構成図" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1261,103 +1257,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4512563" y="3056100"/>
-          <a:ext cx="1666875" cy="1447800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="38100" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="r" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Private</a:t>
-          </a:r>
-          <a:endParaRPr sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="r" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Subnet</a:t>
-          </a:r>
-          <a:endParaRPr sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1704975" cy="1485900"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Shape 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1726,79 +1625,6 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="581025" cy="600075"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Shape 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5069775" y="3499013"/>
-          <a:ext cx="552450" cy="561975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="38100" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>RDS</a:t>
-          </a:r>
-          <a:endParaRPr sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>18</xdr:row>
@@ -2042,11 +1868,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>228601</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1076325" cy="1352550"/>
+    <xdr:ext cx="942974" cy="1428749"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="29" name="Shape 2">
@@ -2060,8 +1886,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2533650" y="3152775"/>
-          <a:ext cx="1076325" cy="1352550"/>
+          <a:off x="2552701" y="3124200"/>
+          <a:ext cx="942974" cy="1428749"/>
           <a:chOff x="4836488" y="3132300"/>
           <a:chExt cx="1019100" cy="1295400"/>
         </a:xfrm>
@@ -2105,12 +1931,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1038225" cy="1352550"/>
+    <xdr:ext cx="962025" cy="1362075"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="31" name="Shape 2">
@@ -2124,8 +1950,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3486150" y="3152775"/>
-          <a:ext cx="1038225" cy="1352550"/>
+          <a:off x="3562350" y="3143250"/>
+          <a:ext cx="962025" cy="1362075"/>
           <a:chOff x="4855463" y="3132300"/>
           <a:chExt cx="981000" cy="1295400"/>
         </a:xfrm>
@@ -2288,70 +2114,6 @@
             <a:prstDash val="solid"/>
             <a:miter lim="800000"/>
             <a:headEnd type="triangle" w="med" len="med"/>
-            <a:tailEnd type="triangle" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1381125" cy="57150"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="37" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2876550" y="6000750"/>
-          <a:ext cx="1381125" cy="57150"/>
-          <a:chOff x="4655438" y="3780000"/>
-          <a:chExt cx="1381200" cy="0"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="38" name="Shape 32">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="23" idx="3"/>
-            <a:endCxn id="24" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4655438" y="3780000"/>
-            <a:ext cx="1381200" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="57150" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:prstDash val="dot"/>
-            <a:miter lim="800000"/>
-            <a:headEnd type="none" w="sm" len="sm"/>
             <a:tailEnd type="triangle" w="med" len="med"/>
           </a:ln>
         </xdr:spPr>

--- a/システム構成図.xlsx
+++ b/システム構成図.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GWー221\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3BD772-027F-4574-A35C-97148A4CFA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4FE190-60CA-4C9F-B746-B8429640D18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="構成図" sheetId="1" r:id="rId1"/>
+    <sheet name="構成図_追加要件" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -106,12 +107,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>-9525</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>573881</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1190625" cy="619125"/>
+    <xdr:ext cx="1190625" cy="473869"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3">
@@ -125,8 +126,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4769738" y="3489488"/>
-          <a:ext cx="1152525" cy="581025"/>
+          <a:off x="2907506" y="228600"/>
+          <a:ext cx="1190625" cy="473869"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -184,7 +185,7 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6086475" cy="6219825"/>
+    <xdr:ext cx="6086475" cy="6324600"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Shape 4">
@@ -198,8 +199,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2321813" y="684375"/>
-          <a:ext cx="6048375" cy="6191250"/>
+          <a:off x="419100" y="1057275"/>
+          <a:ext cx="6086475" cy="6324600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -259,8 +260,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5069775" y="3575213"/>
-          <a:ext cx="552450" cy="409575"/>
+          <a:off x="419100" y="1057275"/>
+          <a:ext cx="581025" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -316,7 +317,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>207169</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="581025" cy="447675"/>
     <xdr:sp macro="" textlink="">
@@ -332,8 +333,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5069775" y="3575213"/>
-          <a:ext cx="552450" cy="409575"/>
+          <a:off x="3250406" y="1397794"/>
+          <a:ext cx="581025" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -387,11 +388,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7144</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5476875" cy="4457700"/>
+    <xdr:ext cx="5464969" cy="4457700"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="Shape 7">
@@ -405,8 +406,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2626613" y="1570200"/>
-          <a:ext cx="5438775" cy="4419600"/>
+          <a:off x="595312" y="2626519"/>
+          <a:ext cx="5464969" cy="4457700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -447,83 +448,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="685800" cy="447675"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Shape 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5022150" y="3575213"/>
-          <a:ext cx="647700" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="38100" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="92D050"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>VPC</a:t>
-          </a:r>
-          <a:endParaRPr sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>188119</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2124075" cy="5105400"/>
     <xdr:sp macro="" textlink="">
@@ -539,8 +467,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4303013" y="1246350"/>
-          <a:ext cx="2085975" cy="5067300"/>
+          <a:off x="1281113" y="2093119"/>
+          <a:ext cx="2124075" cy="5105400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -582,7 +510,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>188119</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="581025" cy="447675"/>
     <xdr:sp macro="" textlink="">
@@ -598,8 +526,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5069775" y="3575213"/>
-          <a:ext cx="552450" cy="409575"/>
+          <a:off x="1271588" y="2093119"/>
+          <a:ext cx="581025" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -655,7 +583,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>188119</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2124075" cy="5105400"/>
     <xdr:sp macro="" textlink="">
@@ -671,8 +599,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4303013" y="1246350"/>
-          <a:ext cx="2085975" cy="5067300"/>
+          <a:off x="3690938" y="2093119"/>
+          <a:ext cx="2124075" cy="5105400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -714,7 +642,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>188119</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="581025" cy="447675"/>
     <xdr:sp macro="" textlink="">
@@ -730,8 +658,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5069775" y="3575213"/>
-          <a:ext cx="552450" cy="409575"/>
+          <a:off x="5238750" y="2093119"/>
+          <a:ext cx="581025" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -786,8 +714,8 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>121444</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="581025" cy="447675"/>
     <xdr:sp macro="" textlink="">
@@ -803,8 +731,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5069775" y="3575213"/>
-          <a:ext cx="552450" cy="409575"/>
+          <a:off x="3250406" y="2978944"/>
+          <a:ext cx="581025" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -860,7 +788,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>207169</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1704975" cy="809625"/>
     <xdr:sp macro="" textlink="">
@@ -876,8 +804,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4512563" y="3394238"/>
-          <a:ext cx="1666875" cy="771525"/>
+          <a:off x="1462088" y="2826544"/>
+          <a:ext cx="1704975" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -957,7 +885,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>207169</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1704975" cy="809625"/>
     <xdr:sp macro="" textlink="">
@@ -973,8 +901,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4512563" y="3394238"/>
-          <a:ext cx="1666875" cy="771525"/>
+          <a:off x="3929063" y="2826544"/>
+          <a:ext cx="1704975" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1053,8 +981,8 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7144</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1704975" cy="1485900"/>
     <xdr:sp macro="" textlink="">
@@ -1070,8 +998,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4512563" y="3056100"/>
-          <a:ext cx="1666875" cy="1447800"/>
+          <a:off x="1462088" y="3817144"/>
+          <a:ext cx="1704975" cy="1485900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1151,7 +1079,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>169069</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1704975" cy="1485900"/>
     <xdr:sp macro="" textlink="">
@@ -1167,8 +1095,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4512563" y="3056100"/>
-          <a:ext cx="1666875" cy="1447800"/>
+          <a:off x="1462088" y="5407819"/>
+          <a:ext cx="1704975" cy="1485900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1247,8 +1175,8 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7144</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1704975" cy="1485900"/>
     <xdr:sp macro="" textlink="">
@@ -1264,8 +1192,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4512563" y="3056100"/>
-          <a:ext cx="1666875" cy="1447800"/>
+          <a:off x="3938588" y="3817144"/>
+          <a:ext cx="1704975" cy="1485900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1342,12 +1270,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2381</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>226219</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="47625" cy="504825"/>
+    <xdr:ext cx="38100" cy="695325"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="2" name="Shape 2">
@@ -1361,10 +1289,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3486150" y="828675"/>
-          <a:ext cx="47625" cy="504825"/>
-          <a:chOff x="5303137" y="3527588"/>
-          <a:chExt cx="85800" cy="504900"/>
+          <a:off x="3502819" y="702469"/>
+          <a:ext cx="38100" cy="695325"/>
+          <a:chOff x="5311718" y="3401305"/>
+          <a:chExt cx="68640" cy="695416"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -1383,14 +1311,14 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5303137" y="3527588"/>
-            <a:ext cx="85800" cy="504900"/>
+            <a:off x="5311718" y="3401305"/>
+            <a:ext cx="68640" cy="695416"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln w="57150" cap="flat" cmpd="sng">
+          <a:ln w="76200" cap="flat" cmpd="sng">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -1409,7 +1337,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>135732</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="581025" cy="600075"/>
     <xdr:sp macro="" textlink="">
@@ -1425,8 +1353,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5069775" y="3499013"/>
-          <a:ext cx="552450" cy="561975"/>
+          <a:off x="4236244" y="4421982"/>
+          <a:ext cx="581025" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1482,7 +1410,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>135732</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="581025" cy="600075"/>
     <xdr:sp macro="" textlink="">
@@ -1498,8 +1426,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5069775" y="3499013"/>
-          <a:ext cx="552450" cy="561975"/>
+          <a:off x="2331244" y="4421982"/>
+          <a:ext cx="581025" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1555,7 +1483,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>102394</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="581025" cy="600075"/>
     <xdr:sp macro="" textlink="">
@@ -1571,8 +1499,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5069775" y="3499013"/>
-          <a:ext cx="552450" cy="561975"/>
+          <a:off x="2321719" y="5817394"/>
+          <a:ext cx="581025" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1626,9 +1554,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:colOff>442912</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>97632</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="723900" cy="666750"/>
     <xdr:sp macro="" textlink="">
@@ -1644,8 +1572,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4984050" y="3451388"/>
-          <a:ext cx="723900" cy="657225"/>
+          <a:off x="1609725" y="4383882"/>
+          <a:ext cx="723900" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1715,9 +1643,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>178594</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>97632</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="723900" cy="666750"/>
     <xdr:sp macro="" textlink="">
@@ -1733,8 +1661,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4984050" y="3451388"/>
-          <a:ext cx="723900" cy="657225"/>
+          <a:off x="4845844" y="4383882"/>
+          <a:ext cx="723900" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1803,12 +1731,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>40481</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>178594</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="57150" cy="1028700"/>
+    <xdr:ext cx="0" cy="1133475"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="27" name="Shape 2">
@@ -1822,10 +1750,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3486150" y="1743075"/>
-          <a:ext cx="57150" cy="1028700"/>
-          <a:chOff x="5346000" y="3265650"/>
-          <a:chExt cx="0" cy="1028700"/>
+          <a:off x="3540919" y="1845469"/>
+          <a:ext cx="0" cy="1133475"/>
+          <a:chOff x="5388863" y="3284700"/>
+          <a:chExt cx="0" cy="1133475"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -1844,14 +1772,14 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5346000" y="3265650"/>
-            <a:ext cx="0" cy="1028700"/>
+            <a:off x="5388863" y="3284700"/>
+            <a:ext cx="0" cy="1133475"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln w="57150" cap="flat" cmpd="sng">
+          <a:ln w="76200" cap="flat" cmpd="sng">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -1868,11 +1796,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>288132</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>92869</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="942974" cy="1428749"/>
+    <xdr:ext cx="919162" cy="995363"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="29" name="Shape 2">
@@ -1886,10 +1814,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2552701" y="3124200"/>
-          <a:ext cx="942974" cy="1428749"/>
-          <a:chOff x="4836488" y="3132300"/>
-          <a:chExt cx="1019100" cy="1295400"/>
+          <a:off x="2621757" y="3426619"/>
+          <a:ext cx="919162" cy="995363"/>
+          <a:chOff x="4900826" y="3330940"/>
+          <a:chExt cx="993366" cy="902466"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -1908,14 +1836,14 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1">
-            <a:off x="4836488" y="3132300"/>
-            <a:ext cx="1019100" cy="1295400"/>
+            <a:off x="4900826" y="3330940"/>
+            <a:ext cx="993366" cy="902466"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln w="57150" cap="flat" cmpd="sng">
+          <a:ln w="76200" cap="flat" cmpd="sng">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -1932,11 +1860,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>40481</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>92869</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="962025" cy="1362075"/>
+    <xdr:ext cx="985838" cy="995363"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="31" name="Shape 2">
@@ -1950,10 +1878,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3562350" y="3143250"/>
-          <a:ext cx="962025" cy="1362075"/>
-          <a:chOff x="4855463" y="3132300"/>
-          <a:chExt cx="981000" cy="1295400"/>
+          <a:off x="3540919" y="3426619"/>
+          <a:ext cx="985838" cy="995363"/>
+          <a:chOff x="4819041" y="3322528"/>
+          <a:chExt cx="1005283" cy="946637"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -1972,14 +1900,14 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4855463" y="3132300"/>
-            <a:ext cx="981000" cy="1295400"/>
+            <a:off x="4819041" y="3322528"/>
+            <a:ext cx="1005283" cy="946637"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln w="57150" cap="flat" cmpd="sng">
+          <a:ln w="76200" cap="flat" cmpd="sng">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -1996,11 +1924,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>278607</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>21432</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2066925" cy="771525"/>
+    <xdr:ext cx="1914525" cy="795337"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="33" name="Shape 2">
@@ -2014,10 +1942,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2524125" y="5010150"/>
-          <a:ext cx="2066925" cy="771525"/>
-          <a:chOff x="4341188" y="3422813"/>
-          <a:chExt cx="2009700" cy="714300"/>
+          <a:off x="2612232" y="5022057"/>
+          <a:ext cx="1914525" cy="795337"/>
+          <a:chOff x="4417594" y="3356692"/>
+          <a:chExt cx="1861519" cy="736350"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -2036,14 +1964,14 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1">
-            <a:off x="4341188" y="3422813"/>
-            <a:ext cx="2009700" cy="714300"/>
+            <a:off x="4417594" y="3356692"/>
+            <a:ext cx="1861519" cy="736350"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln w="57150" cap="flat" cmpd="sng">
+          <a:ln w="76200" cap="flat" cmpd="sng">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -2060,11 +1988,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>278606</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>21432</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="47625" cy="714375"/>
+    <xdr:ext cx="9525" cy="795337"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="35" name="Shape 2">
@@ -2078,10 +2006,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2533650" y="5038725"/>
-          <a:ext cx="47625" cy="714375"/>
-          <a:chOff x="5341163" y="3422813"/>
-          <a:chExt cx="9600" cy="714300"/>
+          <a:off x="2612231" y="5022057"/>
+          <a:ext cx="9525" cy="795337"/>
+          <a:chOff x="5355083" y="3322805"/>
+          <a:chExt cx="1920" cy="795252"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -2100,14 +2028,14 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1">
-            <a:off x="5341163" y="3422813"/>
-            <a:ext cx="9600" cy="714300"/>
+            <a:off x="5355083" y="3322805"/>
+            <a:ext cx="1920" cy="795252"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln w="57150" cap="flat" cmpd="sng">
+          <a:ln w="76200" cap="flat" cmpd="sng">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -2119,6 +2047,2783 @@
         </xdr:spPr>
       </xdr:cxnSp>
     </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>21431</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7144</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="685800" cy="447675"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Shape 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="604837" y="2626519"/>
+          <a:ext cx="685800" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>VPC</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>573881</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1190625" cy="473869"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5C10C43-3CA9-4010-AECA-022058FF22E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2897981" y="228600"/>
+          <a:ext cx="1190625" cy="473869"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Internet</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6086475" cy="6324600"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Shape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAA7ADBA-BFF4-4236-815A-2984F7779CA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="1057275"/>
+          <a:ext cx="6086475" cy="6324600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="581025" cy="447675"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Shape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19CEF7D5-A679-45EB-984F-7898E148AA39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="1057275"/>
+          <a:ext cx="581025" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>AWS</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>207169</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="581025" cy="447675"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Shape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A05247D9-4564-4EC2-80F7-DFBA45F78117}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238500" y="1397794"/>
+          <a:ext cx="581025" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>GW</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7144</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5464969" cy="4457700"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Shape 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FA2B83A-2F50-45CB-A16E-44EF8D01C81E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="592931" y="2626519"/>
+          <a:ext cx="5464969" cy="4457700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>188119</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2124075" cy="5105400"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Shape 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECCCE4A0-D073-4DA5-AC5A-496F3FBAD8E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1276350" y="2093119"/>
+          <a:ext cx="2124075" cy="5105400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>188119</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="581025" cy="447675"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Shape 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC598E47-62B6-4663-84D7-7864AAD50E6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1266825" y="2093119"/>
+          <a:ext cx="581025" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>AZ 1</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>188119</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2124075" cy="5105400"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Shape 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{938B77F0-2884-4CF0-810C-ECEC938BA136}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3676650" y="2093119"/>
+          <a:ext cx="2124075" cy="5105400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>188119</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="581025" cy="447675"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Shape 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9930D6A6-4C73-438E-BE0A-842298B6BA66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5219700" y="2093119"/>
+          <a:ext cx="581025" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>AZ 2</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>121444</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="581025" cy="447675"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Shape 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{579EB4F6-3A58-4AF4-B799-6D6320311AA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238500" y="2978944"/>
+          <a:ext cx="581025" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ALB</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>207169</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1704975" cy="809625"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Shape 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B188070D-509A-4A8D-AEA9-6E8B1DED7240}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1457325" y="2826544"/>
+          <a:ext cx="1704975" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Public</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Subnet</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>207169</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1704975" cy="809625"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Shape 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24A29682-1906-4ACF-BE54-DE98DF2DB477}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3914775" y="2826544"/>
+          <a:ext cx="1704975" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="r" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Public</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="r" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Subnet</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="r" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>02</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7144</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1704975" cy="1485900"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Shape 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24CDC061-0020-41CA-9296-F51667C42074}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1457325" y="3817144"/>
+          <a:ext cx="1704975" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Private</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Subnet</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>web01</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>169069</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1704975" cy="1485900"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Shape 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD33BF1B-A513-4D3E-858C-60E75486B80A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1457325" y="5407819"/>
+          <a:ext cx="1704975" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Private</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Subnet</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>dbs01</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7144</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1704975" cy="1485900"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Shape 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6400F845-9E41-41FF-895A-8D3CA75FE86D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3938588" y="3817144"/>
+          <a:ext cx="1704975" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="r" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Private</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="r" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Subnet</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="r" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>web02</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2381</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>226219</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="38100" cy="695325"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="17" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFBE39F1-0C0D-4DA3-AFEC-F3A8CF6444FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3502819" y="702469"/>
+          <a:ext cx="38100" cy="695325"/>
+          <a:chOff x="5311718" y="3401305"/>
+          <a:chExt cx="68640" cy="695416"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="18" name="Shape 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A08F57A-23FC-4A14-16F5-6059BFC35BC5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="2" idx="2"/>
+            <a:endCxn id="5" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5311718" y="3401305"/>
+            <a:ext cx="68640" cy="695416"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="76200" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="triangle" w="med" len="med"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>135732</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="581025" cy="600075"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Shape 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C92607D1-54CE-41A7-914F-6B5E0EDA5021}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4219575" y="4421982"/>
+          <a:ext cx="581025" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>EC2</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>135732</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="581025" cy="600075"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Shape 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{984B58C5-F617-48EA-9C50-67937CF4D190}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2324100" y="4421982"/>
+          <a:ext cx="581025" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>EC2</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="581025" cy="600075"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Shape 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{486FB5DA-3FE5-439C-8D60-5A9FA6569085}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2321719" y="6067425"/>
+          <a:ext cx="581025" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>RDS</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>407193</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="723900" cy="666750"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Shape 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F823566F-236B-4C2B-B82E-964E6C847AAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1574006" y="4586288"/>
+          <a:ext cx="723900" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Web</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>サーバ</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2333625" cy="2143126"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Shape 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2C071DA-61B5-494E-BB42-60BC4C0B4C12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7000875" y="5000625"/>
+          <a:ext cx="2333625" cy="2143126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>追加要件</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>レプリケーション</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>可能なら</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>切替も試す</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>40481</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="0" cy="1133475"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="24" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC5DF4D-E519-4204-A9BB-6C6688724565}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3540919" y="1845469"/>
+          <a:ext cx="0" cy="1133475"/>
+          <a:chOff x="5388863" y="3284700"/>
+          <a:chExt cx="0" cy="1133475"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="25" name="Shape 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C5A7AE8-CF69-1D9F-817F-71B857BE29E4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="5" idx="2"/>
+            <a:endCxn id="11" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5388863" y="3284700"/>
+            <a:ext cx="0" cy="1133475"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="76200" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="triangle" w="med" len="med"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>288132</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>92869</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="919162" cy="995363"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED490D60-9350-479D-9063-445C402A7580}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2621757" y="3426619"/>
+          <a:ext cx="919162" cy="995363"/>
+          <a:chOff x="4900826" y="3330940"/>
+          <a:chExt cx="993366" cy="902466"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="27" name="Shape 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C84F9C60-C5A1-AAE5-B237-B731FBA64F3D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="11" idx="2"/>
+            <a:endCxn id="20" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="4900826" y="3330940"/>
+            <a:ext cx="993366" cy="902466"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="76200" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="triangle" w="med" len="med"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>40481</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>92869</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="985838" cy="995363"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="28" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C485CBE5-22BA-41AD-A89F-1999EE2CD4B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3540919" y="3426619"/>
+          <a:ext cx="985838" cy="995363"/>
+          <a:chOff x="4819041" y="3322528"/>
+          <a:chExt cx="1005283" cy="946637"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="29" name="Shape 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1340CDE0-555A-5ADE-6409-E39D7980A35A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="11" idx="2"/>
+            <a:endCxn id="19" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4819041" y="3322528"/>
+            <a:ext cx="1005283" cy="946637"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="76200" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="triangle" w="med" len="med"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>278607</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>21433</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1914525" cy="1045368"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="30" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ECB80AF-B3AA-449C-8A76-26688E884625}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2612232" y="5022058"/>
+          <a:ext cx="1914525" cy="1045368"/>
+          <a:chOff x="4417594" y="3356691"/>
+          <a:chExt cx="1861519" cy="967837"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="31" name="Shape 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EBE4DD1-718E-52CA-C378-1FBACCF04936}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="19" idx="2"/>
+            <a:endCxn id="21" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="4417594" y="3356691"/>
+            <a:ext cx="1861519" cy="967837"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="76200" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="triangle" w="med" len="med"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>278606</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>21433</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="1045368"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="32" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F540B926-BDD0-41C8-8B99-0030E5FF3ED0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2612231" y="5022058"/>
+          <a:ext cx="9525" cy="1045368"/>
+          <a:chOff x="5355083" y="3322805"/>
+          <a:chExt cx="1920" cy="1045256"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="33" name="Shape 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A21BC9B-0F21-9EE1-751B-D5323C024D1C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="20" idx="2"/>
+            <a:endCxn id="21" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="5355083" y="3322805"/>
+            <a:ext cx="1920" cy="1045256"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="76200" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="triangle" w="med" len="med"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>21431</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7144</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="685800" cy="447675"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Shape 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A59B9FC8-F773-40CB-9092-837EF6B5C1B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="602456" y="2626519"/>
+          <a:ext cx="685800" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>VPC</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>450056</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>169069</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1704975" cy="1485900"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Shape 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D95C2CBA-23A7-4EF2-180B-BF830D9B58F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3950494" y="5407819"/>
+          <a:ext cx="1704975" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Private</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Subnet</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>dbs02</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="581025" cy="600075"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Shape 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80336D73-D4A6-5051-D3ED-F47FD2937F7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4810125" y="6067425"/>
+          <a:ext cx="581025" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>RDS</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>569119</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1907381" cy="0"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="39" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80737F53-B74A-4597-BA8B-C32719A0AAA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2902744" y="6367463"/>
+          <a:ext cx="1907381" cy="0"/>
+          <a:chOff x="340312" y="3932769"/>
+          <a:chExt cx="1854572" cy="0"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="40" name="Shape 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09E45831-A249-ABEB-EF80-A26B9D1BBC84}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="38" idx="1"/>
+            <a:endCxn id="21" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="340312" y="3932769"/>
+            <a:ext cx="1854572" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="76200" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="triangle" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>416719</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>107157</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="四角形: 角を丸くする 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1B85B29-DD4D-10EC-05D9-6FF09B39E550}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2166938" y="5417344"/>
+          <a:ext cx="3774282" cy="1571625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1071562" cy="83344"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="48" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15AA0404-4F83-466C-A104-F3C2FFD1A51D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5929313" y="6203156"/>
+          <a:ext cx="1071562" cy="83344"/>
+          <a:chOff x="340312" y="3932769"/>
+          <a:chExt cx="1854572" cy="0"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="49" name="Shape 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC77C09-83F6-54EB-EF5C-DA10C0856421}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="340312" y="3932769"/>
+            <a:ext cx="1854572" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="76200" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="723900" cy="666750"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Shape 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C76406A-F49F-4F8C-20CD-FD40F3925BBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4848225" y="4586288"/>
+          <a:ext cx="723900" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Web</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>サーバ</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
@@ -2324,7 +5029,1030 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="I1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="26" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A16CCC7-2FA8-4E91-B023-7E5BC114F32D}">
+  <dimension ref="I1:I1000"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>

--- a/システム構成図.xlsx
+++ b/システム構成図.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GWー221\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4FE190-60CA-4C9F-B746-B8429640D18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B89B2C-78F5-4C54-98EB-C26913919AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="構成図" sheetId="1" r:id="rId1"/>
     <sheet name="構成図_追加要件" sheetId="2" r:id="rId2"/>
+    <sheet name="構成図_Gドライブ用" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -4829,6 +4830,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>296555</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>44057</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="160" name="図 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAC61B24-B575-F331-EB2F-144BFAA1D0E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="296555" y="238125"/>
+          <a:ext cx="6120914" cy="7187807"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -5029,7 +5079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="I1:I1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6052,7 +6102,1030 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A16CCC7-2FA8-4E91-B023-7E5BC114F32D}">
   <dimension ref="I1:I1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="26" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D438EC-F085-44ED-8435-1206D7A26A61}">
+  <dimension ref="I1:I1000"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
